--- a/Excel/Secret.xlsx
+++ b/Excel/Secret.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1312D3-2892-4C35-B3B4-0BC95F3C3488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E9A81B-B195-4F8A-AE6D-E80E525B4681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="60" windowWidth="21600" windowHeight="11385" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="174">
   <si>
     <t>Numero</t>
   </si>
@@ -336,6 +336,228 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Les fibres du fuseau sont constituées de microfilaments d'actine et de filament de myosine</t>
+  </si>
+  <si>
+    <t>Dia 164 du chapitre II</t>
+  </si>
+  <si>
+    <t>En anaphase, les microtubules du kinétochore se dissocient</t>
+  </si>
+  <si>
+    <t>Dia 675 du chapitre II</t>
+  </si>
+  <si>
+    <t>En anaphase, les cellules somatique 2n=40 contient 80 molécules d'ADN chromosomiques</t>
+  </si>
+  <si>
+    <t>Dia 674 du chapitre II</t>
+  </si>
+  <si>
+    <t>Les chromosome sont le plus condensé en métaphase</t>
+  </si>
+  <si>
+    <t>Je ne trouve pas la dia mais c'est pareil chez l'Homme</t>
+  </si>
+  <si>
+    <t>Dia 688 du chapitre II</t>
+  </si>
+  <si>
+    <t>La protéine Rb intervient lors du passage de la phase G1 à S</t>
+  </si>
+  <si>
+    <t>Dia 986 du chapitre III</t>
+  </si>
+  <si>
+    <t>L'activité kinase des Cdks s'exerce des qu'elles se lient à des cyclines spécifiques</t>
+  </si>
+  <si>
+    <t>Dia 696 du chapitre II</t>
+  </si>
+  <si>
+    <t>Le MPF contrôle l'entrée en métaphase de la mitose</t>
+  </si>
+  <si>
+    <t>Dia 700 du chapitre II</t>
+  </si>
+  <si>
+    <t>Les signaux mitotiques agissent en phase G2</t>
+  </si>
+  <si>
+    <t>Dia 695 du chapitre II</t>
+  </si>
+  <si>
+    <t>proposition sur le cycle cellulaire</t>
+  </si>
+  <si>
+    <t>concernant la méiose humaine</t>
+  </si>
+  <si>
+    <t>Chez un bébé féminin ne présentant aucune anomalies génomiques, les ovocytes sont diploïdes.</t>
+  </si>
+  <si>
+    <t>Dia 25 du chapitre III</t>
+  </si>
+  <si>
+    <t>Le crossing over se déroule en prophase 1 de méiose</t>
+  </si>
+  <si>
+    <t>Dia 36 du chapitre III</t>
+  </si>
+  <si>
+    <t>La séparation des chromosomes homologues est induite par la dissociation du complexe synaptonemique.</t>
+  </si>
+  <si>
+    <t>Dia 40 et 46 du chapitre III</t>
+  </si>
+  <si>
+    <t>Chez un individu masculin ne présentant aucunes anomalies/(mutation) chromosomique, l'appariement des chromosomes sexuels se limitent aux sites pseudo autosomiques.</t>
+  </si>
+  <si>
+    <t>Dia 244 du chapitre III</t>
+  </si>
+  <si>
+    <t>relative aux chromosomes humains</t>
+  </si>
+  <si>
+    <t>Le phénotype d’une femme atteinte du syndrome de Turner est du a un mauvaise dosage du à l’échappement de chromosome X</t>
+  </si>
+  <si>
+    <t>Dia 294 du chapitre III</t>
+  </si>
+  <si>
+    <t>Un brassage interchromosomique est une séparation aléatoire des chromosomes homologues</t>
+  </si>
+  <si>
+    <t>Le premier globule polaire et le deuxième globule polaire contient un chromosome de chaque paire</t>
+  </si>
+  <si>
+    <t>Dia 45 du chapitre III</t>
+  </si>
+  <si>
+    <t>Il y a plus de chance qu'une non-disjonction surviennent à la première division de la méiose qu'à la deuxième</t>
+  </si>
+  <si>
+    <t>dsl j'ai pas réussi à trouver une dia qui correspond à cette question</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> concernant les mutations humaines</t>
+  </si>
+  <si>
+    <t>La majorité des mutations dans le génome sont neutres</t>
+  </si>
+  <si>
+    <t>Dia 162 du chapitre III</t>
+  </si>
+  <si>
+    <t>L'anomalie chromosomique 48 XXYY est une aneuploidie</t>
+  </si>
+  <si>
+    <t>Dia 281 du chapitre III</t>
+  </si>
+  <si>
+    <t>L'aneuploïdie en mosaïque est une conséquence de la non-disjonction mitotique</t>
+  </si>
+  <si>
+    <t>Une mutation autosomique homogène qui n'affecte ni la fertilité ni la viabilité est transmise à 50% des enfants</t>
+  </si>
+  <si>
+    <t>proposition relative à la réplication génomique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C'est une mutation qui survient juste avant la méiose donc </t>
+  </si>
+  <si>
+    <t>En absence de télomérase, les extrémités 5' des ADN chromosomiques ne sont pas complètement répliquées</t>
+  </si>
+  <si>
+    <t>Dia 394 du chapitre III</t>
+  </si>
+  <si>
+    <t>(=&gt; extremité 3')</t>
+  </si>
+  <si>
+    <t>L'ADN polymérase alpha est une polymérase distributive qui démarre la réplication du brin retardé et avancé</t>
+  </si>
+  <si>
+    <t>Dia 389 du chapitre III</t>
+  </si>
+  <si>
+    <t>La réplication d'une molécule génère deux molécules dont un brin provient de la molécule parentale et un brin néosynthétisé</t>
+  </si>
+  <si>
+    <t>Dia 363 du chapitre III</t>
+  </si>
+  <si>
+    <t>La réplication d'une molécule se fait de manière continue et discontinue sur chaque brin</t>
+  </si>
+  <si>
+    <t>Dia 379 du chapitre III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concernant la lésion dans l’ADN humain </t>
+  </si>
+  <si>
+    <t>Le système de réparation par excision de base détecte les distorsions dans l’ADN</t>
+  </si>
+  <si>
+    <t>Dia 414 du chapitre III</t>
+  </si>
+  <si>
+    <t>Chez les procaryotes, le spliceosome est dans le cytoplasme</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> y en a pas car pas d'epissage</t>
+  </si>
+  <si>
+    <t>Dia 502 et 460 du chapitre III</t>
+  </si>
+  <si>
+    <t>L'ARN polymérase ajoute des ribonucléotides à l'extrémité 3'</t>
+  </si>
+  <si>
+    <t>Dia 447 du chapitre III</t>
+  </si>
+  <si>
+    <t>Pour un gène donné, le brin transcrit est toujours le même</t>
+  </si>
+  <si>
+    <t>Pour un gène spécifique, le brin d'ADN utilisé comme matrice pour la transcription est toujours le même. C'est-à-dire que le brin transcrit (ou brin matrice) reste constant pour un gène donné, tandis que l'autre brin (brin codant) reste non transcrit pour ce gène spécifique.</t>
+  </si>
+  <si>
+    <t>L'ARN polymérase ne possède pas d'activité de relecture</t>
+  </si>
+  <si>
+    <t>contrairement à l'ADN polymérase</t>
+  </si>
+  <si>
+    <t>concernant la traduction</t>
+  </si>
+  <si>
+    <t>La séquence Kozak encadre le codon d'initiation des ARNm eucaryotes uniquement</t>
+  </si>
+  <si>
+    <t>Dia 479 du chapitre III</t>
+  </si>
+  <si>
+    <t>Lors de l'élongation ARNt passe par le site A,P et E du ribosomes</t>
+  </si>
+  <si>
+    <t>Dia 483 du chapitre III</t>
+  </si>
+  <si>
+    <t>Chaque ARNt se lie à son acide aminé qui lui est spécifique</t>
+  </si>
+  <si>
+    <t>Dia 470 du chapitre III</t>
+  </si>
+  <si>
+    <t>L'ARN polycistronique possède plusieurs codon d'initiation AUG</t>
+  </si>
+  <si>
+    <t>Dia 503 du chapitre III</t>
   </si>
 </sst>
 </file>
@@ -707,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="C45" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,7 +1750,7 @@
         <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -1537,7 +1759,7 @@
         <v>99</v>
       </c>
       <c r="F41" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1548,7 +1770,7 @@
         <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -1557,7 +1779,7 @@
         <v>99</v>
       </c>
       <c r="F42" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1568,7 +1790,7 @@
         <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -1577,7 +1799,7 @@
         <v>99</v>
       </c>
       <c r="F43" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1588,16 +1810,16 @@
         <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F44" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1605,10 +1827,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -1617,7 +1839,7 @@
         <v>99</v>
       </c>
       <c r="F45" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1625,10 +1847,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -1637,7 +1859,7 @@
         <v>99</v>
       </c>
       <c r="F46" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1645,10 +1867,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -1657,7 +1879,7 @@
         <v>99</v>
       </c>
       <c r="F47" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1665,10 +1887,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -1677,7 +1899,7 @@
         <v>99</v>
       </c>
       <c r="F48" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1685,10 +1907,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -1697,7 +1919,7 @@
         <v>99</v>
       </c>
       <c r="F49" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1705,10 +1927,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -1717,7 +1939,2977 @@
         <v>99</v>
       </c>
       <c r="F50" t="s">
-        <v>6</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>134</v>
+      </c>
+      <c r="F56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>99</v>
+      </c>
+      <c r="F59" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>146</v>
+      </c>
+      <c r="F61" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>99</v>
+      </c>
+      <c r="F62" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>99</v>
+      </c>
+      <c r="F63" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>99</v>
+      </c>
+      <c r="F64" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>157</v>
+      </c>
+      <c r="F66" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" t="s">
+        <v>159</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>162</v>
+      </c>
+      <c r="F68" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>164</v>
+      </c>
+      <c r="F69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>99</v>
+      </c>
+      <c r="F71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" t="s">
+        <v>170</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>99</v>
+      </c>
+      <c r="F72" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" t="s">
+        <v>99</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>99</v>
+      </c>
+      <c r="F74" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>99</v>
+      </c>
+      <c r="F75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>99</v>
+      </c>
+      <c r="F76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" t="s">
+        <v>99</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>99</v>
+      </c>
+      <c r="F77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>99</v>
+      </c>
+      <c r="F78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>99</v>
+      </c>
+      <c r="F79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>99</v>
+      </c>
+      <c r="F80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>99</v>
+      </c>
+      <c r="F81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>99</v>
+      </c>
+      <c r="F82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" t="s">
+        <v>99</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>99</v>
+      </c>
+      <c r="F83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" t="s">
+        <v>99</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>99</v>
+      </c>
+      <c r="F84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" t="s">
+        <v>99</v>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>99</v>
+      </c>
+      <c r="F85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" t="s">
+        <v>99</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>99</v>
+      </c>
+      <c r="F86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" t="s">
+        <v>99</v>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>99</v>
+      </c>
+      <c r="F87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" t="s">
+        <v>99</v>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>99</v>
+      </c>
+      <c r="F88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" t="s">
+        <v>99</v>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>99</v>
+      </c>
+      <c r="F89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" t="s">
+        <v>99</v>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>99</v>
+      </c>
+      <c r="F90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" t="s">
+        <v>99</v>
+      </c>
+      <c r="D91" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>99</v>
+      </c>
+      <c r="F91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>99</v>
+      </c>
+      <c r="F92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>99</v>
+      </c>
+      <c r="F93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>99</v>
+      </c>
+      <c r="F94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>99</v>
+      </c>
+      <c r="F95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>99</v>
+      </c>
+      <c r="F96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>99</v>
+      </c>
+      <c r="F97" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" t="s">
+        <v>99</v>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>99</v>
+      </c>
+      <c r="F98" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" t="s">
+        <v>99</v>
+      </c>
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>99</v>
+      </c>
+      <c r="F99" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>99</v>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>99</v>
+      </c>
+      <c r="F100" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" t="s">
+        <v>99</v>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>99</v>
+      </c>
+      <c r="F101" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>99</v>
+      </c>
+      <c r="C102" t="s">
+        <v>99</v>
+      </c>
+      <c r="D102" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>99</v>
+      </c>
+      <c r="F102" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103" t="s">
+        <v>99</v>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F103" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104" t="s">
+        <v>99</v>
+      </c>
+      <c r="D104" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>99</v>
+      </c>
+      <c r="F104" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>99</v>
+      </c>
+      <c r="C105" t="s">
+        <v>99</v>
+      </c>
+      <c r="D105" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>99</v>
+      </c>
+      <c r="F105" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106" t="s">
+        <v>99</v>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>99</v>
+      </c>
+      <c r="F106" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>99</v>
+      </c>
+      <c r="C107" t="s">
+        <v>99</v>
+      </c>
+      <c r="D107" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>99</v>
+      </c>
+      <c r="F107" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>99</v>
+      </c>
+      <c r="C108" t="s">
+        <v>99</v>
+      </c>
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>99</v>
+      </c>
+      <c r="F108" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" t="s">
+        <v>99</v>
+      </c>
+      <c r="D109" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>99</v>
+      </c>
+      <c r="F109" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" t="s">
+        <v>99</v>
+      </c>
+      <c r="D110" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>99</v>
+      </c>
+      <c r="F110" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" t="s">
+        <v>99</v>
+      </c>
+      <c r="D111" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>99</v>
+      </c>
+      <c r="F111" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>99</v>
+      </c>
+      <c r="C112" t="s">
+        <v>99</v>
+      </c>
+      <c r="D112" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>99</v>
+      </c>
+      <c r="F112" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>99</v>
+      </c>
+      <c r="C113" t="s">
+        <v>99</v>
+      </c>
+      <c r="D113" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>99</v>
+      </c>
+      <c r="F113" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>99</v>
+      </c>
+      <c r="C114" t="s">
+        <v>99</v>
+      </c>
+      <c r="D114" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>99</v>
+      </c>
+      <c r="F114" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>99</v>
+      </c>
+      <c r="C115" t="s">
+        <v>99</v>
+      </c>
+      <c r="D115" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>99</v>
+      </c>
+      <c r="F115" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>99</v>
+      </c>
+      <c r="C116" t="s">
+        <v>99</v>
+      </c>
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>99</v>
+      </c>
+      <c r="F116" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>99</v>
+      </c>
+      <c r="C117" t="s">
+        <v>99</v>
+      </c>
+      <c r="D117" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>99</v>
+      </c>
+      <c r="F117" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>99</v>
+      </c>
+      <c r="C118" t="s">
+        <v>99</v>
+      </c>
+      <c r="D118" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>99</v>
+      </c>
+      <c r="F118" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>99</v>
+      </c>
+      <c r="C119" t="s">
+        <v>99</v>
+      </c>
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>99</v>
+      </c>
+      <c r="F119" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>99</v>
+      </c>
+      <c r="C120" t="s">
+        <v>99</v>
+      </c>
+      <c r="D120" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>99</v>
+      </c>
+      <c r="F120" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>99</v>
+      </c>
+      <c r="C121" t="s">
+        <v>99</v>
+      </c>
+      <c r="D121" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>99</v>
+      </c>
+      <c r="F121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>99</v>
+      </c>
+      <c r="C122" t="s">
+        <v>99</v>
+      </c>
+      <c r="D122" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>99</v>
+      </c>
+      <c r="F122" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>99</v>
+      </c>
+      <c r="C123" t="s">
+        <v>99</v>
+      </c>
+      <c r="D123" t="b">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>99</v>
+      </c>
+      <c r="F123" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>99</v>
+      </c>
+      <c r="C124" t="s">
+        <v>99</v>
+      </c>
+      <c r="D124" t="b">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>99</v>
+      </c>
+      <c r="F124" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>99</v>
+      </c>
+      <c r="C125" t="s">
+        <v>99</v>
+      </c>
+      <c r="D125" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>99</v>
+      </c>
+      <c r="F125" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>99</v>
+      </c>
+      <c r="C126" t="s">
+        <v>99</v>
+      </c>
+      <c r="D126" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>99</v>
+      </c>
+      <c r="F126" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>99</v>
+      </c>
+      <c r="C127" t="s">
+        <v>99</v>
+      </c>
+      <c r="D127" t="b">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>99</v>
+      </c>
+      <c r="F127" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>99</v>
+      </c>
+      <c r="C128" t="s">
+        <v>99</v>
+      </c>
+      <c r="D128" t="b">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>99</v>
+      </c>
+      <c r="F128" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>99</v>
+      </c>
+      <c r="C129" t="s">
+        <v>99</v>
+      </c>
+      <c r="D129" t="b">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>99</v>
+      </c>
+      <c r="F129" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>99</v>
+      </c>
+      <c r="C130" t="s">
+        <v>99</v>
+      </c>
+      <c r="D130" t="b">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>99</v>
+      </c>
+      <c r="F130" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>99</v>
+      </c>
+      <c r="C131" t="s">
+        <v>99</v>
+      </c>
+      <c r="D131" t="b">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>99</v>
+      </c>
+      <c r="F131" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>99</v>
+      </c>
+      <c r="C132" t="s">
+        <v>99</v>
+      </c>
+      <c r="D132" t="b">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>99</v>
+      </c>
+      <c r="F132" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>99</v>
+      </c>
+      <c r="C133" t="s">
+        <v>99</v>
+      </c>
+      <c r="D133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>99</v>
+      </c>
+      <c r="F133" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>99</v>
+      </c>
+      <c r="C134" t="s">
+        <v>99</v>
+      </c>
+      <c r="D134" t="b">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>99</v>
+      </c>
+      <c r="F134" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>99</v>
+      </c>
+      <c r="C135" t="s">
+        <v>99</v>
+      </c>
+      <c r="D135" t="b">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>99</v>
+      </c>
+      <c r="F135" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>99</v>
+      </c>
+      <c r="C136" t="s">
+        <v>99</v>
+      </c>
+      <c r="D136" t="b">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>99</v>
+      </c>
+      <c r="F136" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>99</v>
+      </c>
+      <c r="C137" t="s">
+        <v>99</v>
+      </c>
+      <c r="D137" t="b">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>99</v>
+      </c>
+      <c r="F137" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>99</v>
+      </c>
+      <c r="C138" t="s">
+        <v>99</v>
+      </c>
+      <c r="D138" t="b">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>99</v>
+      </c>
+      <c r="F138" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>99</v>
+      </c>
+      <c r="C139" t="s">
+        <v>99</v>
+      </c>
+      <c r="D139" t="b">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>99</v>
+      </c>
+      <c r="F139" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>99</v>
+      </c>
+      <c r="C140" t="s">
+        <v>99</v>
+      </c>
+      <c r="D140" t="b">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>99</v>
+      </c>
+      <c r="F140" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>99</v>
+      </c>
+      <c r="C141" t="s">
+        <v>99</v>
+      </c>
+      <c r="D141" t="b">
+        <v>1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>99</v>
+      </c>
+      <c r="F141" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>99</v>
+      </c>
+      <c r="C142" t="s">
+        <v>99</v>
+      </c>
+      <c r="D142" t="b">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>99</v>
+      </c>
+      <c r="F142" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>99</v>
+      </c>
+      <c r="C143" t="s">
+        <v>99</v>
+      </c>
+      <c r="D143" t="b">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>99</v>
+      </c>
+      <c r="F143" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>99</v>
+      </c>
+      <c r="C144" t="s">
+        <v>99</v>
+      </c>
+      <c r="D144" t="b">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>99</v>
+      </c>
+      <c r="F144" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>99</v>
+      </c>
+      <c r="C145" t="s">
+        <v>99</v>
+      </c>
+      <c r="D145" t="b">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>99</v>
+      </c>
+      <c r="F145" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>99</v>
+      </c>
+      <c r="C146" t="s">
+        <v>99</v>
+      </c>
+      <c r="D146" t="b">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>99</v>
+      </c>
+      <c r="F146" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>99</v>
+      </c>
+      <c r="C147" t="s">
+        <v>99</v>
+      </c>
+      <c r="D147" t="b">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>99</v>
+      </c>
+      <c r="F147" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>99</v>
+      </c>
+      <c r="C148" t="s">
+        <v>99</v>
+      </c>
+      <c r="D148" t="b">
+        <v>1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>99</v>
+      </c>
+      <c r="F148" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>99</v>
+      </c>
+      <c r="C149" t="s">
+        <v>99</v>
+      </c>
+      <c r="D149" t="b">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>99</v>
+      </c>
+      <c r="F149" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>99</v>
+      </c>
+      <c r="C150" t="s">
+        <v>99</v>
+      </c>
+      <c r="D150" t="b">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>99</v>
+      </c>
+      <c r="F150" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>99</v>
+      </c>
+      <c r="C151" t="s">
+        <v>99</v>
+      </c>
+      <c r="D151" t="b">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>99</v>
+      </c>
+      <c r="F151" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>99</v>
+      </c>
+      <c r="C152" t="s">
+        <v>99</v>
+      </c>
+      <c r="D152" t="b">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>99</v>
+      </c>
+      <c r="F152" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>99</v>
+      </c>
+      <c r="C153" t="s">
+        <v>99</v>
+      </c>
+      <c r="D153" t="b">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>99</v>
+      </c>
+      <c r="F153" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>99</v>
+      </c>
+      <c r="C154" t="s">
+        <v>99</v>
+      </c>
+      <c r="D154" t="b">
+        <v>1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>99</v>
+      </c>
+      <c r="F154" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>99</v>
+      </c>
+      <c r="C155" t="s">
+        <v>99</v>
+      </c>
+      <c r="D155" t="b">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>99</v>
+      </c>
+      <c r="F155" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>99</v>
+      </c>
+      <c r="C156" t="s">
+        <v>99</v>
+      </c>
+      <c r="D156" t="b">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>99</v>
+      </c>
+      <c r="F156" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>99</v>
+      </c>
+      <c r="C157" t="s">
+        <v>99</v>
+      </c>
+      <c r="D157" t="b">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>99</v>
+      </c>
+      <c r="F157" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>99</v>
+      </c>
+      <c r="C158" t="s">
+        <v>99</v>
+      </c>
+      <c r="D158" t="b">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>99</v>
+      </c>
+      <c r="F158" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>99</v>
+      </c>
+      <c r="C159" t="s">
+        <v>99</v>
+      </c>
+      <c r="D159" t="b">
+        <v>1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>99</v>
+      </c>
+      <c r="F159" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>99</v>
+      </c>
+      <c r="C160" t="s">
+        <v>99</v>
+      </c>
+      <c r="D160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>99</v>
+      </c>
+      <c r="F160" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>99</v>
+      </c>
+      <c r="C161" t="s">
+        <v>99</v>
+      </c>
+      <c r="D161" t="b">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>99</v>
+      </c>
+      <c r="F161" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>99</v>
+      </c>
+      <c r="C162" t="s">
+        <v>99</v>
+      </c>
+      <c r="D162" t="b">
+        <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>99</v>
+      </c>
+      <c r="F162" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>99</v>
+      </c>
+      <c r="C163" t="s">
+        <v>99</v>
+      </c>
+      <c r="D163" t="b">
+        <v>1</v>
+      </c>
+      <c r="E163" t="s">
+        <v>99</v>
+      </c>
+      <c r="F163" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>99</v>
+      </c>
+      <c r="C164" t="s">
+        <v>99</v>
+      </c>
+      <c r="D164" t="b">
+        <v>1</v>
+      </c>
+      <c r="E164" t="s">
+        <v>99</v>
+      </c>
+      <c r="F164" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>99</v>
+      </c>
+      <c r="C165" t="s">
+        <v>99</v>
+      </c>
+      <c r="D165" t="b">
+        <v>1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>99</v>
+      </c>
+      <c r="F165" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>99</v>
+      </c>
+      <c r="C166" t="s">
+        <v>99</v>
+      </c>
+      <c r="D166" t="b">
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>99</v>
+      </c>
+      <c r="F166" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>99</v>
+      </c>
+      <c r="C167" t="s">
+        <v>99</v>
+      </c>
+      <c r="D167" t="b">
+        <v>1</v>
+      </c>
+      <c r="E167" t="s">
+        <v>99</v>
+      </c>
+      <c r="F167" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>99</v>
+      </c>
+      <c r="C168" t="s">
+        <v>99</v>
+      </c>
+      <c r="D168" t="b">
+        <v>1</v>
+      </c>
+      <c r="E168" t="s">
+        <v>99</v>
+      </c>
+      <c r="F168" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>99</v>
+      </c>
+      <c r="C169" t="s">
+        <v>99</v>
+      </c>
+      <c r="D169" t="b">
+        <v>1</v>
+      </c>
+      <c r="E169" t="s">
+        <v>99</v>
+      </c>
+      <c r="F169" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>99</v>
+      </c>
+      <c r="C170" t="s">
+        <v>99</v>
+      </c>
+      <c r="D170" t="b">
+        <v>1</v>
+      </c>
+      <c r="E170" t="s">
+        <v>99</v>
+      </c>
+      <c r="F170" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>99</v>
+      </c>
+      <c r="C171" t="s">
+        <v>99</v>
+      </c>
+      <c r="D171" t="b">
+        <v>1</v>
+      </c>
+      <c r="E171" t="s">
+        <v>99</v>
+      </c>
+      <c r="F171" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>99</v>
+      </c>
+      <c r="C172" t="s">
+        <v>99</v>
+      </c>
+      <c r="D172" t="b">
+        <v>1</v>
+      </c>
+      <c r="E172" t="s">
+        <v>99</v>
+      </c>
+      <c r="F172" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>99</v>
+      </c>
+      <c r="C173" t="s">
+        <v>99</v>
+      </c>
+      <c r="D173" t="b">
+        <v>1</v>
+      </c>
+      <c r="E173" t="s">
+        <v>99</v>
+      </c>
+      <c r="F173" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>99</v>
+      </c>
+      <c r="C174" t="s">
+        <v>99</v>
+      </c>
+      <c r="D174" t="b">
+        <v>1</v>
+      </c>
+      <c r="E174" t="s">
+        <v>99</v>
+      </c>
+      <c r="F174" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>99</v>
+      </c>
+      <c r="C175" t="s">
+        <v>99</v>
+      </c>
+      <c r="D175" t="b">
+        <v>1</v>
+      </c>
+      <c r="E175" t="s">
+        <v>99</v>
+      </c>
+      <c r="F175" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>99</v>
+      </c>
+      <c r="C176" t="s">
+        <v>99</v>
+      </c>
+      <c r="D176" t="b">
+        <v>1</v>
+      </c>
+      <c r="E176" t="s">
+        <v>99</v>
+      </c>
+      <c r="F176" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>99</v>
+      </c>
+      <c r="C177" t="s">
+        <v>99</v>
+      </c>
+      <c r="D177" t="b">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>99</v>
+      </c>
+      <c r="F177" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>99</v>
+      </c>
+      <c r="C178" t="s">
+        <v>99</v>
+      </c>
+      <c r="D178" t="b">
+        <v>1</v>
+      </c>
+      <c r="E178" t="s">
+        <v>99</v>
+      </c>
+      <c r="F178" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>99</v>
+      </c>
+      <c r="C179" t="s">
+        <v>99</v>
+      </c>
+      <c r="D179" t="b">
+        <v>1</v>
+      </c>
+      <c r="E179" t="s">
+        <v>99</v>
+      </c>
+      <c r="F179" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>99</v>
+      </c>
+      <c r="C180" t="s">
+        <v>99</v>
+      </c>
+      <c r="D180" t="b">
+        <v>1</v>
+      </c>
+      <c r="E180" t="s">
+        <v>99</v>
+      </c>
+      <c r="F180" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>99</v>
+      </c>
+      <c r="C181" t="s">
+        <v>99</v>
+      </c>
+      <c r="D181" t="b">
+        <v>1</v>
+      </c>
+      <c r="E181" t="s">
+        <v>99</v>
+      </c>
+      <c r="F181" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>99</v>
+      </c>
+      <c r="C182" t="s">
+        <v>99</v>
+      </c>
+      <c r="D182" t="b">
+        <v>1</v>
+      </c>
+      <c r="E182" t="s">
+        <v>99</v>
+      </c>
+      <c r="F182" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>99</v>
+      </c>
+      <c r="C183" t="s">
+        <v>99</v>
+      </c>
+      <c r="D183" t="b">
+        <v>1</v>
+      </c>
+      <c r="E183" t="s">
+        <v>99</v>
+      </c>
+      <c r="F183" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>99</v>
+      </c>
+      <c r="C184" t="s">
+        <v>99</v>
+      </c>
+      <c r="D184" t="b">
+        <v>1</v>
+      </c>
+      <c r="E184" t="s">
+        <v>99</v>
+      </c>
+      <c r="F184" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>99</v>
+      </c>
+      <c r="C185" t="s">
+        <v>99</v>
+      </c>
+      <c r="D185" t="b">
+        <v>1</v>
+      </c>
+      <c r="E185" t="s">
+        <v>99</v>
+      </c>
+      <c r="F185" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>99</v>
+      </c>
+      <c r="C186" t="s">
+        <v>99</v>
+      </c>
+      <c r="D186" t="b">
+        <v>1</v>
+      </c>
+      <c r="E186" t="s">
+        <v>99</v>
+      </c>
+      <c r="F186" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>99</v>
+      </c>
+      <c r="C187" t="s">
+        <v>99</v>
+      </c>
+      <c r="D187" t="b">
+        <v>1</v>
+      </c>
+      <c r="E187" t="s">
+        <v>99</v>
+      </c>
+      <c r="F187" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>99</v>
+      </c>
+      <c r="C188" t="s">
+        <v>99</v>
+      </c>
+      <c r="D188" t="b">
+        <v>1</v>
+      </c>
+      <c r="E188" t="s">
+        <v>99</v>
+      </c>
+      <c r="F188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>99</v>
+      </c>
+      <c r="C189" t="s">
+        <v>99</v>
+      </c>
+      <c r="D189" t="b">
+        <v>1</v>
+      </c>
+      <c r="E189" t="s">
+        <v>99</v>
+      </c>
+      <c r="F189" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>99</v>
+      </c>
+      <c r="C190" t="s">
+        <v>99</v>
+      </c>
+      <c r="D190" t="b">
+        <v>1</v>
+      </c>
+      <c r="E190" t="s">
+        <v>99</v>
+      </c>
+      <c r="F190" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>99</v>
+      </c>
+      <c r="C191" t="s">
+        <v>99</v>
+      </c>
+      <c r="D191" t="b">
+        <v>1</v>
+      </c>
+      <c r="E191" t="s">
+        <v>99</v>
+      </c>
+      <c r="F191" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>99</v>
+      </c>
+      <c r="C192" t="s">
+        <v>99</v>
+      </c>
+      <c r="D192" t="b">
+        <v>1</v>
+      </c>
+      <c r="E192" t="s">
+        <v>99</v>
+      </c>
+      <c r="F192" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>99</v>
+      </c>
+      <c r="C193" t="s">
+        <v>99</v>
+      </c>
+      <c r="D193" t="b">
+        <v>1</v>
+      </c>
+      <c r="E193" t="s">
+        <v>99</v>
+      </c>
+      <c r="F193" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>99</v>
+      </c>
+      <c r="C194" t="s">
+        <v>99</v>
+      </c>
+      <c r="D194" t="b">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>99</v>
+      </c>
+      <c r="F194" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>99</v>
+      </c>
+      <c r="C195" t="s">
+        <v>99</v>
+      </c>
+      <c r="D195" t="b">
+        <v>1</v>
+      </c>
+      <c r="E195" t="s">
+        <v>99</v>
+      </c>
+      <c r="F195" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>99</v>
+      </c>
+      <c r="C196" t="s">
+        <v>99</v>
+      </c>
+      <c r="D196" t="b">
+        <v>1</v>
+      </c>
+      <c r="E196" t="s">
+        <v>99</v>
+      </c>
+      <c r="F196" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>99</v>
+      </c>
+      <c r="C197" t="s">
+        <v>99</v>
+      </c>
+      <c r="D197" t="b">
+        <v>1</v>
+      </c>
+      <c r="E197" t="s">
+        <v>99</v>
+      </c>
+      <c r="F197" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>99</v>
+      </c>
+      <c r="C198" t="s">
+        <v>99</v>
+      </c>
+      <c r="D198" t="b">
+        <v>1</v>
+      </c>
+      <c r="E198" t="s">
+        <v>99</v>
+      </c>
+      <c r="F198" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F199" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F200" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Secret.xlsx
+++ b/Excel/Secret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E9A81B-B195-4F8A-AE6D-E80E525B4681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121CEE5D-FFAB-4A8F-99E4-2BD7F81FE6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="186">
   <si>
     <t>Numero</t>
   </si>
@@ -467,9 +467,6 @@
     <t>proposition relative à la réplication génomique</t>
   </si>
   <si>
-    <t xml:space="preserve">C'est une mutation qui survient juste avant la méiose donc </t>
-  </si>
-  <si>
     <t>En absence de télomérase, les extrémités 5' des ADN chromosomiques ne sont pas complètement répliquées</t>
   </si>
   <si>
@@ -558,6 +555,45 @@
   </si>
   <si>
     <t>Dia 503 du chapitre III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">par rapport à la génétique bactérienne </t>
+  </si>
+  <si>
+    <t>Lors de la conjugaison bactérienne, un seul des 2 brins du facteur F est totalement ou partiellement transmis</t>
+  </si>
+  <si>
+    <t>Dia 629 du chapitre III</t>
+  </si>
+  <si>
+    <t>En absence de lactose, le répresseur de l'opéron lactose se fixe sur l'opérateur</t>
+  </si>
+  <si>
+    <t>Dia 646 du chapitre III</t>
+  </si>
+  <si>
+    <t>Lors de la transduction une partie de la bactérie est transmise à la bactérie receveuse</t>
+  </si>
+  <si>
+    <t>Dia 625 du chapitre III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En l'absence d'antibiotique, une bactérie pourvue d'un plasmide contenant un gène de résistance résiste moins bien qu'une bactérie sans plasmide </t>
+  </si>
+  <si>
+    <t>Dia 633 du chapitre III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concernant l’expression génétique chez les eucaryotes </t>
+  </si>
+  <si>
+    <t>Les rétrotransposons codent des transcriptases inverse et des intégrases exprimées dans le noyau</t>
+  </si>
+  <si>
+    <t>Dia 736 du chapitre III</t>
+  </si>
+  <si>
+    <t>Les ARN invertases inhibent les ARNm spécifiques</t>
   </si>
 </sst>
 </file>
@@ -931,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C45" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="C66" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="F60" t="s">
         <v>139</v>
@@ -2150,16 +2186,16 @@
         <v>142</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2170,16 +2206,16 @@
         <v>142</v>
       </c>
       <c r="C62" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>99</v>
+      </c>
+      <c r="F62" t="s">
         <v>147</v>
-      </c>
-      <c r="D62" t="b">
-        <v>1</v>
-      </c>
-      <c r="E62" t="s">
-        <v>99</v>
-      </c>
-      <c r="F62" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2190,16 +2226,16 @@
         <v>142</v>
       </c>
       <c r="C63" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>99</v>
+      </c>
+      <c r="F63" t="s">
         <v>149</v>
-      </c>
-      <c r="D63" t="b">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
-        <v>99</v>
-      </c>
-      <c r="F63" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2210,16 +2246,16 @@
         <v>142</v>
       </c>
       <c r="C64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>99</v>
+      </c>
+      <c r="F64" t="s">
         <v>151</v>
-      </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" t="s">
-        <v>99</v>
-      </c>
-      <c r="F64" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2227,19 +2263,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" t="s">
         <v>153</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65" t="s">
         <v>154</v>
-      </c>
-      <c r="D65" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>99</v>
-      </c>
-      <c r="F65" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2250,16 +2286,16 @@
         <v>99</v>
       </c>
       <c r="C66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="s">
+        <v>156</v>
+      </c>
+      <c r="F66" t="s">
         <v>157</v>
-      </c>
-      <c r="F66" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2270,16 +2306,16 @@
         <v>99</v>
       </c>
       <c r="C67" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67" t="s">
         <v>159</v>
-      </c>
-      <c r="D67" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67" t="s">
-        <v>99</v>
-      </c>
-      <c r="F67" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2290,16 +2326,16 @@
         <v>99</v>
       </c>
       <c r="C68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
         <v>161</v>
       </c>
-      <c r="D68" t="b">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>162</v>
-      </c>
       <c r="F68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2310,16 +2346,16 @@
         <v>99</v>
       </c>
       <c r="C69" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
         <v>163</v>
       </c>
-      <c r="D69" t="b">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
-        <v>164</v>
-      </c>
       <c r="F69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2327,19 +2363,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" t="s">
         <v>165</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70" t="s">
         <v>166</v>
-      </c>
-      <c r="D70" t="b">
-        <v>1</v>
-      </c>
-      <c r="E70" t="s">
-        <v>99</v>
-      </c>
-      <c r="F70" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2347,19 +2383,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C71" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>99</v>
+      </c>
+      <c r="F71" t="s">
         <v>168</v>
-      </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>99</v>
-      </c>
-      <c r="F71" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2367,19 +2403,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C72" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>99</v>
+      </c>
+      <c r="F72" t="s">
         <v>170</v>
-      </c>
-      <c r="D72" t="b">
-        <v>1</v>
-      </c>
-      <c r="E72" t="s">
-        <v>99</v>
-      </c>
-      <c r="F72" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2387,19 +2423,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" t="s">
         <v>172</v>
-      </c>
-      <c r="D73" t="b">
-        <v>1</v>
-      </c>
-      <c r="E73" t="s">
-        <v>99</v>
-      </c>
-      <c r="F73" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2407,10 +2443,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="C74" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -2419,7 +2455,7 @@
         <v>99</v>
       </c>
       <c r="F74" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2427,10 +2463,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="C75" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
@@ -2439,7 +2475,7 @@
         <v>99</v>
       </c>
       <c r="F75" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2447,10 +2483,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="C76" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -2459,7 +2495,7 @@
         <v>99</v>
       </c>
       <c r="F76" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2467,19 +2503,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="C77" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="D77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="s">
         <v>99</v>
       </c>
       <c r="F77" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2487,10 +2523,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="C78" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
@@ -2499,7 +2535,7 @@
         <v>99</v>
       </c>
       <c r="F78" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2507,10 +2543,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="C79" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="D79" t="b">
         <v>1</v>
@@ -2527,7 +2563,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="C80" t="s">
         <v>99</v>
@@ -2547,13 +2583,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="C81" t="s">
         <v>99</v>
       </c>
       <c r="D81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="s">
         <v>99</v>

--- a/Excel/Secret.xlsx
+++ b/Excel/Secret.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121CEE5D-FFAB-4A8F-99E4-2BD7F81FE6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671D28ED-7E13-471C-B642-418E7030831B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
+    <workbookView xWindow="7200" yWindow="60" windowWidth="21600" windowHeight="11385" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="375">
   <si>
     <t>Numero</t>
   </si>
@@ -593,7 +593,574 @@
     <t>Dia 736 du chapitre III</t>
   </si>
   <si>
-    <t>Les ARN invertases inhibent les ARNm spécifiques</t>
+    <t>Les ARN interférent inhibent les ARNm spécifiques</t>
+  </si>
+  <si>
+    <t>je trouvais pas le mot arn invertase dans les dias donc jpense c'est ça</t>
+  </si>
+  <si>
+    <t>Dia 722 du chapitre III</t>
+  </si>
+  <si>
+    <t>L’extrémité amino-terminale des histones modifie les chromatines</t>
+  </si>
+  <si>
+    <t>Dia 678 et 683 du chapitre III</t>
+  </si>
+  <si>
+    <t>Les phénomènes orthologues sont dus à un phénomène de duplication.</t>
+  </si>
+  <si>
+    <t>de spéciation, pas de duplication</t>
+  </si>
+  <si>
+    <t>concernant les virus</t>
+  </si>
+  <si>
+    <t>Les virus à polarité négative ne sont pas traduits par les ribosomes de la cellule hôte</t>
+  </si>
+  <si>
+    <t>Dia 560 du chapitre III</t>
+  </si>
+  <si>
+    <t>Dia 752 du chapitre III</t>
+  </si>
+  <si>
+    <t>La transduction localisée est réalisée par les phages tempérés</t>
+  </si>
+  <si>
+    <t>Dia 624 du chapitre III</t>
+  </si>
+  <si>
+    <t>La première étape du processus d’infection du virus SIDA est la liaison du gp120 viral aux récepteurs CD4</t>
+  </si>
+  <si>
+    <t>Dia 596 du chapitre III</t>
+  </si>
+  <si>
+    <t>j'ai piffé la question mais je suis persuadé que y avait le mot neuraminidase dedans</t>
+  </si>
+  <si>
+    <t>Le virus de la grippe s'insère dans la cellule hôte grâce à l'inhibition de la neuraminidase</t>
+  </si>
+  <si>
+    <t>Dia 585 du chapitre III</t>
+  </si>
+  <si>
+    <t>concernant le chapitre sur les cancers</t>
+  </si>
+  <si>
+    <t>Les individus possédant le gène de Philadelphie ont une chance accrue de développer une leucémie myéloïde chronique.</t>
+  </si>
+  <si>
+    <t>Le facteur de transcription p53 exerce son action au point G1</t>
+  </si>
+  <si>
+    <t>Dia 958 du chapitre III</t>
+  </si>
+  <si>
+    <t>Dia 938 et 939 du chapitre III</t>
+  </si>
+  <si>
+    <t>La surexpression d’un oncogène lui confère des propriétés oncogéniques</t>
+  </si>
+  <si>
+    <t>Dia 948 du chapitre III</t>
+  </si>
+  <si>
+    <t>Le syndrôme de Lynch est liée à la perte de fonction d’un gène du système MMR</t>
+  </si>
+  <si>
+    <t>Je crois que la question parlait du syndrôme de Lynch</t>
+  </si>
+  <si>
+    <t>Dia 405 du chapitre III</t>
+  </si>
+  <si>
+    <t>concernant les biotechnologies</t>
+  </si>
+  <si>
+    <t>c'est le chromosome de philadelphie, pas le gène</t>
+  </si>
+  <si>
+    <t>La RT PCR ne permet pas de déterminer si un gène est plus ou moins exprimé dans les différents tissus</t>
+  </si>
+  <si>
+    <t>C'est le northern blotting qui permet de savoir le niveau d'expression d'un gène</t>
+  </si>
+  <si>
+    <t>Dia 864 du chapitre III</t>
+  </si>
+  <si>
+    <t>Le Tm (temperature melting) est la température à laquelle 50% des molécules d'ADN sont dénaturés</t>
+  </si>
+  <si>
+    <t>Dia 834 du chapitre III</t>
+  </si>
+  <si>
+    <t>Le diagnostic par PCR permet un dépistage plus précoce, que les techniques qui utilisent le système immunitaire de l'hôte</t>
+  </si>
+  <si>
+    <t>Dia 843 du chapitre III</t>
+  </si>
+  <si>
+    <t>Le vecteur plasmide de clonage ne permet pas de différencier les bactéries avec un plasmide recombinant de celle qui n'ont pas de plasmide</t>
+  </si>
+  <si>
+    <t>J'ai pas compris</t>
+  </si>
+  <si>
+    <t>Dia 849 du chapitre III</t>
+  </si>
+  <si>
+    <t>Question sur l’évolution</t>
+  </si>
+  <si>
+    <t>J'ai pas compris pk</t>
+  </si>
+  <si>
+    <t>Une population de Hardy Weinberg ne varie pas au cours du temps</t>
+  </si>
+  <si>
+    <t>Dia 164 du chapitre IV</t>
+  </si>
+  <si>
+    <t>La spéciation sympatrique est un isolement reproductif au sein d'une même aire géographique</t>
+  </si>
+  <si>
+    <t>Dia 278 du chapitre IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’isolement reproductif de quelques individus dans une même population favorise une spéciation par anagenèse. </t>
+  </si>
+  <si>
+    <t>C'est par cladogénèse</t>
+  </si>
+  <si>
+    <t>Dia 258 du chapitre IV</t>
+  </si>
+  <si>
+    <t>La dérive génétique peut entraîner la perte d’un allèle bénéfique.</t>
+  </si>
+  <si>
+    <t>Dia 218 du chapitre IV</t>
+  </si>
+  <si>
+    <t>La sélection naturelle modifie le génome des individus sélectionnés</t>
+  </si>
+  <si>
+    <t>Dia 27 du chapitre IV</t>
+  </si>
+  <si>
+    <t>Ca sélectionne juste le génome</t>
+  </si>
+  <si>
+    <t>L’autofécondation modifie les allèles d’une population.</t>
+  </si>
+  <si>
+    <t>Dia 180 du chapitre IV</t>
+  </si>
+  <si>
+    <t>Dia 70 du chapitre V</t>
+  </si>
+  <si>
+    <t>Le procédé de dépollution qui utilise des organismes vivants est appelée bioremediation</t>
+  </si>
+  <si>
+    <t>La maladie du légionnaire est une maladie des voies respiratoires qui est causée par une bactérie qui se développe en eau douce</t>
+  </si>
+  <si>
+    <t>ptdr y a rien dans ses dias donc go wikipédia : https://fr.wikipedia.org/wiki/L%C3%A9gionellose</t>
+  </si>
+  <si>
+    <t>Les bactéries qui fixent l'azote expriment la leghémoglobine</t>
+  </si>
+  <si>
+    <t>La leghémoglobine est une protéine qui fixe le dioxygène et qui est présent chez les végétaux avec lequels les bactéries qui fixent l'azote forment des relations symbiotiques</t>
+  </si>
+  <si>
+    <t>Dia 18 du chapitre V</t>
+  </si>
+  <si>
+    <t>Les bactéries dans des biofilms survivent mieux que leur équivalent planctonique dans des conditions environnementales hostiles</t>
+  </si>
+  <si>
+    <t>Dia 24 du chapitre V</t>
+  </si>
+  <si>
+    <t>Dia 574 du chapitre III</t>
+  </si>
+  <si>
+    <t>(c une psychopathe)</t>
+  </si>
+  <si>
+    <t>La toxine botulique provient d'une bactérie qui abrite un prophage</t>
+  </si>
+  <si>
+    <t>Bacillus anthracis est entouré d'une capsule inhabituelle lui permettant de survivre plusieurs années dans la terre</t>
+  </si>
+  <si>
+    <t>Dia 62 du chapitre II</t>
+  </si>
+  <si>
+    <t>La bactériorhodopsine est un pigment pourpre qui pompe des H+</t>
+  </si>
+  <si>
+    <t>Dia 79 du chapitre V</t>
+  </si>
+  <si>
+    <t>Chlamydia est une bactérie intracellulaire obligatoire</t>
+  </si>
+  <si>
+    <t>Dia 48 du chapitre V</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> relative aux trypanosomes africains</t>
+  </si>
+  <si>
+    <t>Ce sont des parasites extracellulaires</t>
+  </si>
+  <si>
+    <t>La VSG est une protéine membranaire ancrée à un glycérophospholipide.</t>
+  </si>
+  <si>
+    <t>La procycline est produite par les cellules intestinales des glossines femelles uniquement</t>
+  </si>
+  <si>
+    <t>Ils peuvent franchir la barrière placentaire et infecter le fœtus.</t>
+  </si>
+  <si>
+    <t>Dia 112 du chapitre V</t>
+  </si>
+  <si>
+    <t>Elles nagent autour des globules rouges et pas à l'intérieur</t>
+  </si>
+  <si>
+    <t>Dia 118 du chapitre V</t>
+  </si>
+  <si>
+    <t>Dia 116 du chapitre V</t>
+  </si>
+  <si>
+    <t>Elles ne sont pas PRODUITES par les cellules intestinales, juste quand les trypomastigotes sanguicoles sont dans l'intestin elles se transforment en procycline</t>
+  </si>
+  <si>
+    <t>Dia 1085 du chapitre V</t>
+  </si>
+  <si>
+    <t>Concernant les plasmodium</t>
+  </si>
+  <si>
+    <t>Chez l’humain, les sporozoïtes pénètrent les hépatocytes</t>
+  </si>
+  <si>
+    <t>Le complexe apicale se trouve à l’extrémité apicale de la forme mérozoïte uniquement</t>
+  </si>
+  <si>
+    <t>Les gamétocytes constituent la forme contaminante pour le moustique</t>
+  </si>
+  <si>
+    <t>La méiose se déroule dans les glandes salivaires de l'anophèle femelle</t>
+  </si>
+  <si>
+    <t>Dia 140 du chapitre V</t>
+  </si>
+  <si>
+    <t>Dia 135 du chapitre V</t>
+  </si>
+  <si>
+    <t>proposition sur les cellules végétales</t>
+  </si>
+  <si>
+    <t>La turgescence des cellules de garde permet l’ouverture des ostioles qu’elles encadrent</t>
+  </si>
+  <si>
+    <t>Dia 229 du chapitre V</t>
+  </si>
+  <si>
+    <t>Elle le dit à l'oral mais en gros les cellules de gardes vont se remplir d'eau, ce qui va ouvrir les ostioles et permettre les échanges gazeux</t>
+  </si>
+  <si>
+    <t>Les angiospermes dioïques possédent des fleurs bisexuées</t>
+  </si>
+  <si>
+    <t>Dia 343 du chapitre V</t>
+  </si>
+  <si>
+    <t>Les trachéides se trouvent dans toutes les plantes vasculaires</t>
+  </si>
+  <si>
+    <t>Dia 238 du chapitre V</t>
+  </si>
+  <si>
+    <t>Le saccharose est le composé principal exporté hors des cellules photosynthétiques</t>
+  </si>
+  <si>
+    <t>Dia 237 du chapitre V</t>
+  </si>
+  <si>
+    <t>Les cellules photosynthétiques = les feuilles qui sont en haut de l'arbre, du coup il faut regarder ce qu'il y a dans le phloème.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concernant les plantes à graines </t>
+  </si>
+  <si>
+    <t>Le sporophyte produit des spores diploïdes par méiose</t>
+  </si>
+  <si>
+    <t>Il produit des spores haploïdes</t>
+  </si>
+  <si>
+    <t>Dia 248 du chapitre V</t>
+  </si>
+  <si>
+    <t>Dia 321 du chapitre V</t>
+  </si>
+  <si>
+    <t>Il a pas de flagelle</t>
+  </si>
+  <si>
+    <t>Le gamète mâle perd sa flagelle en rentrant dans l'ovule</t>
+  </si>
+  <si>
+    <t>Le gamète femelle est formé avant la fécondation</t>
+  </si>
+  <si>
+    <t>C'est QUE chez les plantes à fleurs, pas chez les plantes à graines en général</t>
+  </si>
+  <si>
+    <t>Dia 319 du chapitre V</t>
+  </si>
+  <si>
+    <t>La dispersion de spores sont le mode de dissémination</t>
+  </si>
+  <si>
+    <t>Non c'est via les graines</t>
+  </si>
+  <si>
+    <t>Dia 293 du chapitre V</t>
+  </si>
+  <si>
+    <t>Question sur les champignons</t>
+  </si>
+  <si>
+    <t>Le mycorhize vivent en association avec les plante, champignons et dans 10% des cas cyanobactéries</t>
+  </si>
+  <si>
+    <t>Les levures sont pluricellulaires</t>
+  </si>
+  <si>
+    <t>Les champignons produisent des hydrolases</t>
+  </si>
+  <si>
+    <t>Dia 419  du chapitre V</t>
+  </si>
+  <si>
+    <t>Dia 405 du chapitre V</t>
+  </si>
+  <si>
+    <t>Dia 355 du chapitre V</t>
+  </si>
+  <si>
+    <t>Les champignons ont ancêtre en commun avec animaux</t>
+  </si>
+  <si>
+    <t>Moi pas savoir pourquoi être faux</t>
+  </si>
+  <si>
+    <t>Dia 358 du chapitre V</t>
+  </si>
+  <si>
+    <t>Parceque ouais faut savoir qu'une hydrolase = enzyme qui fait des hydrolyse = enzyme hydrolytique</t>
+  </si>
+  <si>
+    <t>concernant les acoelomates</t>
+  </si>
+  <si>
+    <t>La présence d'œufs operculés dans les selles humaines suggère une infection à F.hépatica</t>
+  </si>
+  <si>
+    <t>L'humain peut contracter une bilharziose en se baignant en eau douce.</t>
+  </si>
+  <si>
+    <t>Une cysticercose est une complication possible d'une teniase T.salium</t>
+  </si>
+  <si>
+    <t>Le cycle de la grande douve nécessite une eau douce.</t>
+  </si>
+  <si>
+    <t>Dia 604 du chapitre V</t>
+  </si>
+  <si>
+    <t>Fasciola hepatica = Grande douve du foie</t>
+  </si>
+  <si>
+    <t>Dia 607 et 609 du chapitre V</t>
+  </si>
+  <si>
+    <t>Vu que le mollusque vit en eau douce, alors les furcocercaire libérés sont en eau douce donc pour se faire attaquer faut se baigner en eau douce</t>
+  </si>
+  <si>
+    <t>Dia 615 du chapitre V</t>
+  </si>
+  <si>
+    <t>Dia 600 du chapitre V</t>
+  </si>
+  <si>
+    <t>concernant les parasites pseudocoelomates</t>
+  </si>
+  <si>
+    <t>Les coques des œufs d'ascaris sont lisses</t>
+  </si>
+  <si>
+    <t>Ils sont mamelonnés</t>
+  </si>
+  <si>
+    <t>Les ascaris s'ancrent dans les bronches de son hôte</t>
+  </si>
+  <si>
+    <t>Dia 661 du chapitre V</t>
+  </si>
+  <si>
+    <t>Dia 660 du chapitre V</t>
+  </si>
+  <si>
+    <t>Je crois que vu qu'ils sont de passage par les bronches, c'est considéré comme si ils "s'ancraient" dedans</t>
+  </si>
+  <si>
+    <t>Les trichines s'enkystent uniquement dans les cellules musculaires striés</t>
+  </si>
+  <si>
+    <t>Dans le doc c'est écrit muscle lisse mais je trouve que strié dans les dias</t>
+  </si>
+  <si>
+    <t>Dia 655 du chapitre V</t>
+  </si>
+  <si>
+    <t>Les ascaris s'accouplent dans le tube digestif</t>
+  </si>
+  <si>
+    <t>au sujet des invertébrés</t>
+  </si>
+  <si>
+    <t>Les zooxanthelles sont des dinophytes parasites responsables du blanchiment des coraux</t>
+  </si>
+  <si>
+    <t>Pas parasite, mais symbiose bénéfique</t>
+  </si>
+  <si>
+    <t>Dia 578 du chapitre V</t>
+  </si>
+  <si>
+    <t>La taille des chélicères des scorpions est généralement inversement proportionnelle à la puissance du venin</t>
+  </si>
+  <si>
+    <t>Dia 816 du chapitre V</t>
+  </si>
+  <si>
+    <t>Les poux du pubis restent accrochés à la peau</t>
+  </si>
+  <si>
+    <t>Dia 856 du chapitre V</t>
+  </si>
+  <si>
+    <t>Je pense c'est dit comme ça sur la peau pour dire que ça vit pas sur les vetements</t>
+  </si>
+  <si>
+    <t>Les puces ne libèrent pas leurs larves sur la peau</t>
+  </si>
+  <si>
+    <t>Dia 853 du chapitre V</t>
+  </si>
+  <si>
+    <t>se nourrissent uniquement sur la peau, les larves tombent par terre</t>
+  </si>
+  <si>
+    <t>proposition concernant les vertébrés</t>
+  </si>
+  <si>
+    <t>Chez les tétrapodes, la ceinture pectorale et pelvienne sont soudées au squelette axial.</t>
+  </si>
+  <si>
+    <t>Les glandes mammaires sont des glandes endocrines propres aux mammifères.</t>
+  </si>
+  <si>
+    <t>Lorsque le crocodile plonge, le foramen de Panizza se ferme.</t>
+  </si>
+  <si>
+    <t>Les écailles placoïdes sont constituées de dentine recouvertes d’émail.</t>
+  </si>
+  <si>
+    <t>Dia 982 du chapitre V</t>
+  </si>
+  <si>
+    <t>La ceinture pectoral n'est pas soudé au squelette axial puisqu'elle est indépendante du crane (qui lui est lié au squelette axial). C'est grâce à cette indépendance que le tétrapode a une grande flexibilité et mobilité</t>
+  </si>
+  <si>
+    <t>Ce sont des glandes exocrines car elles libèrent une sécretion à l'extérieur, une glande endocrine libère des hormones dans le sang</t>
+  </si>
+  <si>
+    <t>Dia 1062 du chapitre V</t>
+  </si>
+  <si>
+    <t>c'est dit à l'oral mais le foramen de panizza s'ouvre quand ils plongent car il n'y a plus d'apport en oxygène donc plus besoin d'isoler le sang riche en oxygène dans la circulation sanguine (cf wiki : https://fr.wikipedia.org/wiki/Foramen_de_Panizza)</t>
+  </si>
+  <si>
+    <t>Dia 952  du chapitre V</t>
+  </si>
+  <si>
+    <t>proposition concernant les Vertébrés</t>
+  </si>
+  <si>
+    <t>L'encéphale fait partie du cerveau</t>
+  </si>
+  <si>
+    <t>Les glandes sudoripares c'est des glandes cutanés qui proviennent de l'épiderme</t>
+  </si>
+  <si>
+    <t>L'épiderme est pluri stratifié</t>
+  </si>
+  <si>
+    <t>L'aorte droite des oiseaux et l'aorte gauche des mammifères provient de ventricule gauche</t>
+  </si>
+  <si>
+    <t>Les poumons fonctionnels peuvent coexister avec l’appareil branchial</t>
+  </si>
+  <si>
+    <t>Les villosités chorionique des euthériens ont le même génome que les embryons qui se développent</t>
+  </si>
+  <si>
+    <t>Chez les amphibiens adultes, les branchies ne sont observées qu’en cas de néoténie</t>
+  </si>
+  <si>
+    <t>Lorsqu’il se contracte, le diaphragme s’abaisse et s’aplatit.</t>
+  </si>
+  <si>
+    <t>C'est l'inverse</t>
+  </si>
+  <si>
+    <t>Dia 934 du chapitre V</t>
+  </si>
+  <si>
+    <t>Dia 1094 du chapitre V</t>
+  </si>
+  <si>
+    <t>Dia 1060 du chapitre V</t>
+  </si>
+  <si>
+    <t>C'est dans le cours d'histologie</t>
+  </si>
+  <si>
+    <t>Dia 1067 et 1042 du chapitre V</t>
+  </si>
+  <si>
+    <t>Dia 985 du chapitre V</t>
+  </si>
+  <si>
+    <t>Néoténie = garder forme enfant à l'âge adulte = pédomorphose</t>
+  </si>
+  <si>
+    <t>Dia 1070 du chapitre V</t>
   </si>
 </sst>
 </file>
@@ -629,8 +1196,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -965,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C66" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="F40" t="s">
         <v>97</v>
@@ -2552,10 +3122,10 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="F79" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2566,7 +3136,7 @@
         <v>182</v>
       </c>
       <c r="C80" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="D80" t="b">
         <v>1</v>
@@ -2575,7 +3145,7 @@
         <v>99</v>
       </c>
       <c r="F80" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2586,16 +3156,16 @@
         <v>182</v>
       </c>
       <c r="C81" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="F81" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2603,10 +3173,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="C82" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="D82" t="b">
         <v>1</v>
@@ -2615,7 +3185,7 @@
         <v>99</v>
       </c>
       <c r="F82" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2623,10 +3193,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="C83" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="D83" t="b">
         <v>1</v>
@@ -2635,7 +3205,7 @@
         <v>99</v>
       </c>
       <c r="F83" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2643,10 +3213,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="C84" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="D84" t="b">
         <v>1</v>
@@ -2655,7 +3225,7 @@
         <v>99</v>
       </c>
       <c r="F84" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2663,19 +3233,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="C85" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="D85" t="b">
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="F85" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2683,19 +3253,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>204</v>
       </c>
       <c r="D86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>99</v>
+        <v>214</v>
       </c>
       <c r="F86" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2703,10 +3273,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="C87" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="D87" t="b">
         <v>1</v>
@@ -2715,7 +3285,7 @@
         <v>99</v>
       </c>
       <c r="F87" t="s">
-        <v>120</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2723,10 +3293,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="C88" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="D88" t="b">
         <v>1</v>
@@ -2735,7 +3305,7 @@
         <v>99</v>
       </c>
       <c r="F88" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2743,19 +3313,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="C89" t="s">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="D89" t="b">
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="F89" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2763,19 +3333,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="C90" t="s">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="D90" t="b">
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="F90" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2783,10 +3353,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="C91" t="s">
-        <v>99</v>
+        <v>218</v>
       </c>
       <c r="D91" t="b">
         <v>1</v>
@@ -2795,7 +3365,7 @@
         <v>99</v>
       </c>
       <c r="F91" t="s">
-        <v>120</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2803,10 +3373,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="C92" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="D92" t="b">
         <v>1</v>
@@ -2815,7 +3385,7 @@
         <v>99</v>
       </c>
       <c r="F92" t="s">
-        <v>120</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2823,19 +3393,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="C93" t="s">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>99</v>
+        <v>223</v>
       </c>
       <c r="F93" t="s">
-        <v>120</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2843,10 +3413,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="C94" t="s">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="D94" t="b">
         <v>1</v>
@@ -2855,7 +3425,7 @@
         <v>99</v>
       </c>
       <c r="F94" t="s">
-        <v>120</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2863,10 +3433,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="C95" t="s">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="D95" t="b">
         <v>1</v>
@@ -2875,7 +3445,7 @@
         <v>99</v>
       </c>
       <c r="F95" t="s">
-        <v>120</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2883,19 +3453,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="C96" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="D96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="F96" t="s">
-        <v>120</v>
+        <v>233</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2903,10 +3473,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="C97" t="s">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="D97" t="b">
         <v>1</v>
@@ -2915,7 +3485,7 @@
         <v>99</v>
       </c>
       <c r="F97" t="s">
-        <v>120</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2923,19 +3493,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="C98" t="s">
-        <v>99</v>
+        <v>236</v>
       </c>
       <c r="D98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>99</v>
+        <v>238</v>
       </c>
       <c r="F98" t="s">
-        <v>120</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2943,19 +3513,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="C99" t="s">
-        <v>99</v>
+        <v>239</v>
       </c>
       <c r="D99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="s">
         <v>99</v>
       </c>
       <c r="F99" t="s">
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2966,7 +3536,7 @@
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>99</v>
+        <v>242</v>
       </c>
       <c r="D100" t="b">
         <v>1</v>
@@ -2975,7 +3545,7 @@
         <v>99</v>
       </c>
       <c r="F100" t="s">
-        <v>120</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2986,16 +3556,16 @@
         <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>99</v>
+        <v>243</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>99</v>
+        <v>244</v>
       </c>
       <c r="F101" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3006,16 +3576,16 @@
         <v>99</v>
       </c>
       <c r="C102" t="s">
-        <v>99</v>
+        <v>245</v>
       </c>
       <c r="D102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>99</v>
+        <v>246</v>
       </c>
       <c r="F102" t="s">
-        <v>120</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3026,7 +3596,7 @@
         <v>99</v>
       </c>
       <c r="C103" t="s">
-        <v>99</v>
+        <v>248</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
@@ -3035,7 +3605,7 @@
         <v>99</v>
       </c>
       <c r="F103" t="s">
-        <v>120</v>
+        <v>249</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3046,16 +3616,16 @@
         <v>99</v>
       </c>
       <c r="C104" t="s">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c r="D104" t="b">
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="F104" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3066,16 +3636,16 @@
         <v>99</v>
       </c>
       <c r="C105" t="s">
-        <v>99</v>
+        <v>253</v>
       </c>
       <c r="D105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" t="s">
         <v>99</v>
       </c>
       <c r="F105" t="s">
-        <v>120</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3086,7 +3656,7 @@
         <v>99</v>
       </c>
       <c r="C106" t="s">
-        <v>99</v>
+        <v>255</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
@@ -3095,7 +3665,7 @@
         <v>99</v>
       </c>
       <c r="F106" t="s">
-        <v>120</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3106,7 +3676,7 @@
         <v>99</v>
       </c>
       <c r="C107" t="s">
-        <v>99</v>
+        <v>257</v>
       </c>
       <c r="D107" t="b">
         <v>1</v>
@@ -3115,7 +3685,7 @@
         <v>99</v>
       </c>
       <c r="F107" t="s">
-        <v>120</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3123,19 +3693,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>99</v>
+        <v>259</v>
       </c>
       <c r="C108" t="s">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="D108" t="b">
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>99</v>
+        <v>265</v>
       </c>
       <c r="F108" t="s">
-        <v>120</v>
+        <v>264</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3143,10 +3713,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>99</v>
+        <v>259</v>
       </c>
       <c r="C109" t="s">
-        <v>99</v>
+        <v>261</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
@@ -3155,7 +3725,7 @@
         <v>99</v>
       </c>
       <c r="F109" t="s">
-        <v>120</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3163,19 +3733,19 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>99</v>
+        <v>259</v>
       </c>
       <c r="C110" t="s">
-        <v>99</v>
+        <v>262</v>
       </c>
       <c r="D110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>99</v>
+        <v>268</v>
       </c>
       <c r="F110" t="s">
-        <v>120</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3183,10 +3753,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>99</v>
+        <v>259</v>
       </c>
       <c r="C111" t="s">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
@@ -3195,7 +3765,7 @@
         <v>99</v>
       </c>
       <c r="F111" t="s">
-        <v>120</v>
+        <v>269</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3203,10 +3773,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="C112" t="s">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
@@ -3215,7 +3785,7 @@
         <v>99</v>
       </c>
       <c r="F112" t="s">
-        <v>120</v>
+        <v>275</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3223,10 +3793,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="C113" t="s">
-        <v>99</v>
+        <v>272</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
@@ -3235,7 +3805,7 @@
         <v>99</v>
       </c>
       <c r="F113" t="s">
-        <v>120</v>
+        <v>276</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3243,10 +3813,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="C114" t="s">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
@@ -3255,7 +3825,7 @@
         <v>99</v>
       </c>
       <c r="F114" t="s">
-        <v>120</v>
+        <v>275</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3263,10 +3833,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="C115" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>
@@ -3275,7 +3845,7 @@
         <v>99</v>
       </c>
       <c r="F115" t="s">
-        <v>120</v>
+        <v>275</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3283,19 +3853,19 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>99</v>
+        <v>277</v>
       </c>
       <c r="C116" t="s">
-        <v>99</v>
+        <v>278</v>
       </c>
       <c r="D116" t="b">
         <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>99</v>
+        <v>280</v>
       </c>
       <c r="F116" t="s">
-        <v>120</v>
+        <v>279</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3303,19 +3873,19 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>99</v>
+        <v>277</v>
       </c>
       <c r="C117" t="s">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="D117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" t="s">
         <v>99</v>
       </c>
       <c r="F117" t="s">
-        <v>120</v>
+        <v>282</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3323,10 +3893,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>99</v>
+        <v>277</v>
       </c>
       <c r="C118" t="s">
-        <v>99</v>
+        <v>283</v>
       </c>
       <c r="D118" t="b">
         <v>1</v>
@@ -3335,7 +3905,7 @@
         <v>99</v>
       </c>
       <c r="F118" t="s">
-        <v>120</v>
+        <v>284</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3343,19 +3913,19 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>99</v>
+        <v>277</v>
       </c>
       <c r="C119" t="s">
-        <v>99</v>
+        <v>285</v>
       </c>
       <c r="D119" t="b">
         <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>99</v>
+        <v>287</v>
       </c>
       <c r="F119" t="s">
-        <v>120</v>
+        <v>286</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3363,19 +3933,19 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>99</v>
+        <v>288</v>
       </c>
       <c r="C120" t="s">
-        <v>99</v>
+        <v>289</v>
       </c>
       <c r="D120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>99</v>
+        <v>290</v>
       </c>
       <c r="F120" t="s">
-        <v>120</v>
+        <v>291</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3383,19 +3953,19 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>99</v>
+        <v>288</v>
       </c>
       <c r="C121" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="D121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>99</v>
+        <v>293</v>
       </c>
       <c r="F121" t="s">
-        <v>120</v>
+        <v>292</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3403,19 +3973,19 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>99</v>
+        <v>288</v>
       </c>
       <c r="C122" t="s">
-        <v>99</v>
+        <v>295</v>
       </c>
       <c r="D122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>99</v>
+        <v>296</v>
       </c>
       <c r="F122" t="s">
-        <v>120</v>
+        <v>297</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3423,19 +3993,19 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>99</v>
+        <v>288</v>
       </c>
       <c r="C123" t="s">
-        <v>99</v>
+        <v>298</v>
       </c>
       <c r="D123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>99</v>
+        <v>299</v>
       </c>
       <c r="F123" t="s">
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3443,19 +4013,19 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>99</v>
+        <v>301</v>
       </c>
       <c r="C124" t="s">
-        <v>99</v>
+        <v>302</v>
       </c>
       <c r="D124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="s">
         <v>99</v>
       </c>
       <c r="F124" t="s">
-        <v>120</v>
+        <v>305</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3463,19 +4033,19 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>99</v>
+        <v>301</v>
       </c>
       <c r="C125" t="s">
-        <v>99</v>
+        <v>303</v>
       </c>
       <c r="D125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="s">
         <v>99</v>
       </c>
       <c r="F125" t="s">
-        <v>120</v>
+        <v>306</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3483,19 +4053,19 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>99</v>
+        <v>301</v>
       </c>
       <c r="C126" t="s">
-        <v>99</v>
+        <v>308</v>
       </c>
       <c r="D126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>99</v>
+        <v>309</v>
       </c>
       <c r="F126" t="s">
-        <v>120</v>
+        <v>307</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3503,19 +4073,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>99</v>
+        <v>301</v>
       </c>
       <c r="C127" t="s">
-        <v>99</v>
+        <v>304</v>
       </c>
       <c r="D127" t="b">
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>99</v>
+        <v>311</v>
       </c>
       <c r="F127" t="s">
-        <v>120</v>
+        <v>310</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3523,19 +4093,19 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>99</v>
+        <v>312</v>
       </c>
       <c r="C128" t="s">
-        <v>99</v>
+        <v>313</v>
       </c>
       <c r="D128" t="b">
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>99</v>
+        <v>318</v>
       </c>
       <c r="F128" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3543,19 +4113,19 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>99</v>
+        <v>312</v>
       </c>
       <c r="C129" t="s">
-        <v>99</v>
+        <v>314</v>
       </c>
       <c r="D129" t="b">
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>99</v>
+        <v>320</v>
       </c>
       <c r="F129" t="s">
-        <v>120</v>
+        <v>319</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3563,10 +4133,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>99</v>
+        <v>312</v>
       </c>
       <c r="C130" t="s">
-        <v>99</v>
+        <v>315</v>
       </c>
       <c r="D130" t="b">
         <v>1</v>
@@ -3575,7 +4145,7 @@
         <v>99</v>
       </c>
       <c r="F130" t="s">
-        <v>120</v>
+        <v>321</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3583,10 +4153,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>99</v>
+        <v>312</v>
       </c>
       <c r="C131" t="s">
-        <v>99</v>
+        <v>316</v>
       </c>
       <c r="D131" t="b">
         <v>1</v>
@@ -3595,7 +4165,7 @@
         <v>99</v>
       </c>
       <c r="F131" t="s">
-        <v>120</v>
+        <v>322</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3603,19 +4173,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>99</v>
+        <v>323</v>
       </c>
       <c r="C132" t="s">
-        <v>99</v>
+        <v>324</v>
       </c>
       <c r="D132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="F132" t="s">
-        <v>120</v>
+        <v>327</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3623,19 +4193,19 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>99</v>
+        <v>323</v>
       </c>
       <c r="C133" t="s">
-        <v>99</v>
+        <v>326</v>
       </c>
       <c r="D133" t="b">
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>99</v>
+        <v>329</v>
       </c>
       <c r="F133" t="s">
-        <v>120</v>
+        <v>328</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3643,19 +4213,19 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>99</v>
+        <v>323</v>
       </c>
       <c r="C134" t="s">
-        <v>99</v>
+        <v>330</v>
       </c>
       <c r="D134" t="b">
         <v>1</v>
       </c>
       <c r="E134" t="s">
-        <v>99</v>
+        <v>331</v>
       </c>
       <c r="F134" t="s">
-        <v>120</v>
+        <v>332</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3663,10 +4233,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>99</v>
+        <v>323</v>
       </c>
       <c r="C135" t="s">
-        <v>99</v>
+        <v>333</v>
       </c>
       <c r="D135" t="b">
         <v>1</v>
@@ -3675,27 +4245,27 @@
         <v>99</v>
       </c>
       <c r="F135" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>99</v>
-      </c>
-      <c r="C136" t="s">
-        <v>99</v>
+        <v>334</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="D136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>99</v>
+        <v>336</v>
       </c>
       <c r="F136" t="s">
-        <v>120</v>
+        <v>337</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3703,19 +4273,19 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>99</v>
+        <v>334</v>
       </c>
       <c r="C137" t="s">
-        <v>99</v>
+        <v>338</v>
       </c>
       <c r="D137" t="b">
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>99</v>
+        <v>280</v>
       </c>
       <c r="F137" t="s">
-        <v>120</v>
+        <v>339</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3723,19 +4293,19 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>99</v>
+        <v>334</v>
       </c>
       <c r="C138" t="s">
-        <v>99</v>
+        <v>340</v>
       </c>
       <c r="D138" t="b">
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>99</v>
+        <v>342</v>
       </c>
       <c r="F138" t="s">
-        <v>120</v>
+        <v>341</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3743,19 +4313,19 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>99</v>
+        <v>334</v>
       </c>
       <c r="C139" t="s">
-        <v>99</v>
+        <v>343</v>
       </c>
       <c r="D139" t="b">
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>99</v>
+        <v>345</v>
       </c>
       <c r="F139" t="s">
-        <v>120</v>
+        <v>344</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3763,19 +4333,19 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>99</v>
+        <v>346</v>
       </c>
       <c r="C140" t="s">
-        <v>99</v>
+        <v>347</v>
       </c>
       <c r="D140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>99</v>
+        <v>352</v>
       </c>
       <c r="F140" t="s">
-        <v>120</v>
+        <v>351</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3783,19 +4353,19 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>99</v>
+        <v>346</v>
       </c>
       <c r="C141" t="s">
-        <v>99</v>
+        <v>348</v>
       </c>
       <c r="D141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>99</v>
+        <v>353</v>
       </c>
       <c r="F141" t="s">
-        <v>120</v>
+        <v>354</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3803,19 +4373,19 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>99</v>
+        <v>346</v>
       </c>
       <c r="C142" t="s">
-        <v>99</v>
+        <v>349</v>
       </c>
       <c r="D142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>99</v>
+        <v>355</v>
       </c>
       <c r="F142" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3823,10 +4393,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>99</v>
+        <v>346</v>
       </c>
       <c r="C143" t="s">
-        <v>99</v>
+        <v>350</v>
       </c>
       <c r="D143" t="b">
         <v>1</v>
@@ -3835,7 +4405,7 @@
         <v>99</v>
       </c>
       <c r="F143" t="s">
-        <v>120</v>
+        <v>356</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3843,19 +4413,19 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>99</v>
+        <v>357</v>
       </c>
       <c r="C144" t="s">
-        <v>99</v>
+        <v>358</v>
       </c>
       <c r="D144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>99</v>
+        <v>366</v>
       </c>
       <c r="F144" t="s">
-        <v>120</v>
+        <v>367</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3863,10 +4433,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>99</v>
+        <v>357</v>
       </c>
       <c r="C145" t="s">
-        <v>99</v>
+        <v>359</v>
       </c>
       <c r="D145" t="b">
         <v>1</v>
@@ -3875,7 +4445,7 @@
         <v>99</v>
       </c>
       <c r="F145" t="s">
-        <v>120</v>
+        <v>368</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3883,19 +4453,19 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>99</v>
+        <v>357</v>
       </c>
       <c r="C146" t="s">
-        <v>99</v>
+        <v>360</v>
       </c>
       <c r="D146" t="b">
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>99</v>
+        <v>370</v>
       </c>
       <c r="F146" t="s">
-        <v>120</v>
+        <v>369</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3903,10 +4473,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>99</v>
+        <v>357</v>
       </c>
       <c r="C147" t="s">
-        <v>99</v>
+        <v>361</v>
       </c>
       <c r="D147" t="b">
         <v>1</v>
@@ -3915,7 +4485,7 @@
         <v>99</v>
       </c>
       <c r="F147" t="s">
-        <v>120</v>
+        <v>371</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3923,10 +4493,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>99</v>
+        <v>357</v>
       </c>
       <c r="C148" t="s">
-        <v>99</v>
+        <v>362</v>
       </c>
       <c r="D148" t="b">
         <v>1</v>
@@ -3935,7 +4505,7 @@
         <v>99</v>
       </c>
       <c r="F148" t="s">
-        <v>120</v>
+        <v>372</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -3943,10 +4513,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>99</v>
+        <v>357</v>
       </c>
       <c r="C149" t="s">
-        <v>99</v>
+        <v>363</v>
       </c>
       <c r="D149" t="b">
         <v>1</v>
@@ -3955,7 +4525,7 @@
         <v>99</v>
       </c>
       <c r="F149" t="s">
-        <v>120</v>
+        <v>269</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -3963,19 +4533,19 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>99</v>
+        <v>357</v>
       </c>
       <c r="C150" t="s">
-        <v>99</v>
+        <v>364</v>
       </c>
       <c r="D150" t="b">
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>99</v>
+        <v>373</v>
       </c>
       <c r="F150" t="s">
-        <v>120</v>
+        <v>372</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -3983,10 +4553,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>99</v>
+        <v>357</v>
       </c>
       <c r="C151" t="s">
-        <v>99</v>
+        <v>365</v>
       </c>
       <c r="D151" t="b">
         <v>1</v>
@@ -3995,957 +4565,7 @@
         <v>99</v>
       </c>
       <c r="F151" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>151</v>
-      </c>
-      <c r="B152" t="s">
-        <v>99</v>
-      </c>
-      <c r="C152" t="s">
-        <v>99</v>
-      </c>
-      <c r="D152" t="b">
-        <v>1</v>
-      </c>
-      <c r="E152" t="s">
-        <v>99</v>
-      </c>
-      <c r="F152" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>152</v>
-      </c>
-      <c r="B153" t="s">
-        <v>99</v>
-      </c>
-      <c r="C153" t="s">
-        <v>99</v>
-      </c>
-      <c r="D153" t="b">
-        <v>1</v>
-      </c>
-      <c r="E153" t="s">
-        <v>99</v>
-      </c>
-      <c r="F153" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>153</v>
-      </c>
-      <c r="B154" t="s">
-        <v>99</v>
-      </c>
-      <c r="C154" t="s">
-        <v>99</v>
-      </c>
-      <c r="D154" t="b">
-        <v>1</v>
-      </c>
-      <c r="E154" t="s">
-        <v>99</v>
-      </c>
-      <c r="F154" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>154</v>
-      </c>
-      <c r="B155" t="s">
-        <v>99</v>
-      </c>
-      <c r="C155" t="s">
-        <v>99</v>
-      </c>
-      <c r="D155" t="b">
-        <v>1</v>
-      </c>
-      <c r="E155" t="s">
-        <v>99</v>
-      </c>
-      <c r="F155" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>155</v>
-      </c>
-      <c r="B156" t="s">
-        <v>99</v>
-      </c>
-      <c r="C156" t="s">
-        <v>99</v>
-      </c>
-      <c r="D156" t="b">
-        <v>1</v>
-      </c>
-      <c r="E156" t="s">
-        <v>99</v>
-      </c>
-      <c r="F156" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>156</v>
-      </c>
-      <c r="B157" t="s">
-        <v>99</v>
-      </c>
-      <c r="C157" t="s">
-        <v>99</v>
-      </c>
-      <c r="D157" t="b">
-        <v>1</v>
-      </c>
-      <c r="E157" t="s">
-        <v>99</v>
-      </c>
-      <c r="F157" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>157</v>
-      </c>
-      <c r="B158" t="s">
-        <v>99</v>
-      </c>
-      <c r="C158" t="s">
-        <v>99</v>
-      </c>
-      <c r="D158" t="b">
-        <v>1</v>
-      </c>
-      <c r="E158" t="s">
-        <v>99</v>
-      </c>
-      <c r="F158" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>158</v>
-      </c>
-      <c r="B159" t="s">
-        <v>99</v>
-      </c>
-      <c r="C159" t="s">
-        <v>99</v>
-      </c>
-      <c r="D159" t="b">
-        <v>1</v>
-      </c>
-      <c r="E159" t="s">
-        <v>99</v>
-      </c>
-      <c r="F159" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>159</v>
-      </c>
-      <c r="B160" t="s">
-        <v>99</v>
-      </c>
-      <c r="C160" t="s">
-        <v>99</v>
-      </c>
-      <c r="D160" t="b">
-        <v>1</v>
-      </c>
-      <c r="E160" t="s">
-        <v>99</v>
-      </c>
-      <c r="F160" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>160</v>
-      </c>
-      <c r="B161" t="s">
-        <v>99</v>
-      </c>
-      <c r="C161" t="s">
-        <v>99</v>
-      </c>
-      <c r="D161" t="b">
-        <v>1</v>
-      </c>
-      <c r="E161" t="s">
-        <v>99</v>
-      </c>
-      <c r="F161" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>161</v>
-      </c>
-      <c r="B162" t="s">
-        <v>99</v>
-      </c>
-      <c r="C162" t="s">
-        <v>99</v>
-      </c>
-      <c r="D162" t="b">
-        <v>1</v>
-      </c>
-      <c r="E162" t="s">
-        <v>99</v>
-      </c>
-      <c r="F162" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>162</v>
-      </c>
-      <c r="B163" t="s">
-        <v>99</v>
-      </c>
-      <c r="C163" t="s">
-        <v>99</v>
-      </c>
-      <c r="D163" t="b">
-        <v>1</v>
-      </c>
-      <c r="E163" t="s">
-        <v>99</v>
-      </c>
-      <c r="F163" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>163</v>
-      </c>
-      <c r="B164" t="s">
-        <v>99</v>
-      </c>
-      <c r="C164" t="s">
-        <v>99</v>
-      </c>
-      <c r="D164" t="b">
-        <v>1</v>
-      </c>
-      <c r="E164" t="s">
-        <v>99</v>
-      </c>
-      <c r="F164" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>164</v>
-      </c>
-      <c r="B165" t="s">
-        <v>99</v>
-      </c>
-      <c r="C165" t="s">
-        <v>99</v>
-      </c>
-      <c r="D165" t="b">
-        <v>1</v>
-      </c>
-      <c r="E165" t="s">
-        <v>99</v>
-      </c>
-      <c r="F165" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>165</v>
-      </c>
-      <c r="B166" t="s">
-        <v>99</v>
-      </c>
-      <c r="C166" t="s">
-        <v>99</v>
-      </c>
-      <c r="D166" t="b">
-        <v>1</v>
-      </c>
-      <c r="E166" t="s">
-        <v>99</v>
-      </c>
-      <c r="F166" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>166</v>
-      </c>
-      <c r="B167" t="s">
-        <v>99</v>
-      </c>
-      <c r="C167" t="s">
-        <v>99</v>
-      </c>
-      <c r="D167" t="b">
-        <v>1</v>
-      </c>
-      <c r="E167" t="s">
-        <v>99</v>
-      </c>
-      <c r="F167" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>167</v>
-      </c>
-      <c r="B168" t="s">
-        <v>99</v>
-      </c>
-      <c r="C168" t="s">
-        <v>99</v>
-      </c>
-      <c r="D168" t="b">
-        <v>1</v>
-      </c>
-      <c r="E168" t="s">
-        <v>99</v>
-      </c>
-      <c r="F168" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>168</v>
-      </c>
-      <c r="B169" t="s">
-        <v>99</v>
-      </c>
-      <c r="C169" t="s">
-        <v>99</v>
-      </c>
-      <c r="D169" t="b">
-        <v>1</v>
-      </c>
-      <c r="E169" t="s">
-        <v>99</v>
-      </c>
-      <c r="F169" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>169</v>
-      </c>
-      <c r="B170" t="s">
-        <v>99</v>
-      </c>
-      <c r="C170" t="s">
-        <v>99</v>
-      </c>
-      <c r="D170" t="b">
-        <v>1</v>
-      </c>
-      <c r="E170" t="s">
-        <v>99</v>
-      </c>
-      <c r="F170" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>170</v>
-      </c>
-      <c r="B171" t="s">
-        <v>99</v>
-      </c>
-      <c r="C171" t="s">
-        <v>99</v>
-      </c>
-      <c r="D171" t="b">
-        <v>1</v>
-      </c>
-      <c r="E171" t="s">
-        <v>99</v>
-      </c>
-      <c r="F171" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>171</v>
-      </c>
-      <c r="B172" t="s">
-        <v>99</v>
-      </c>
-      <c r="C172" t="s">
-        <v>99</v>
-      </c>
-      <c r="D172" t="b">
-        <v>1</v>
-      </c>
-      <c r="E172" t="s">
-        <v>99</v>
-      </c>
-      <c r="F172" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>172</v>
-      </c>
-      <c r="B173" t="s">
-        <v>99</v>
-      </c>
-      <c r="C173" t="s">
-        <v>99</v>
-      </c>
-      <c r="D173" t="b">
-        <v>1</v>
-      </c>
-      <c r="E173" t="s">
-        <v>99</v>
-      </c>
-      <c r="F173" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>173</v>
-      </c>
-      <c r="B174" t="s">
-        <v>99</v>
-      </c>
-      <c r="C174" t="s">
-        <v>99</v>
-      </c>
-      <c r="D174" t="b">
-        <v>1</v>
-      </c>
-      <c r="E174" t="s">
-        <v>99</v>
-      </c>
-      <c r="F174" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>174</v>
-      </c>
-      <c r="B175" t="s">
-        <v>99</v>
-      </c>
-      <c r="C175" t="s">
-        <v>99</v>
-      </c>
-      <c r="D175" t="b">
-        <v>1</v>
-      </c>
-      <c r="E175" t="s">
-        <v>99</v>
-      </c>
-      <c r="F175" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>175</v>
-      </c>
-      <c r="B176" t="s">
-        <v>99</v>
-      </c>
-      <c r="C176" t="s">
-        <v>99</v>
-      </c>
-      <c r="D176" t="b">
-        <v>1</v>
-      </c>
-      <c r="E176" t="s">
-        <v>99</v>
-      </c>
-      <c r="F176" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>176</v>
-      </c>
-      <c r="B177" t="s">
-        <v>99</v>
-      </c>
-      <c r="C177" t="s">
-        <v>99</v>
-      </c>
-      <c r="D177" t="b">
-        <v>1</v>
-      </c>
-      <c r="E177" t="s">
-        <v>99</v>
-      </c>
-      <c r="F177" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>177</v>
-      </c>
-      <c r="B178" t="s">
-        <v>99</v>
-      </c>
-      <c r="C178" t="s">
-        <v>99</v>
-      </c>
-      <c r="D178" t="b">
-        <v>1</v>
-      </c>
-      <c r="E178" t="s">
-        <v>99</v>
-      </c>
-      <c r="F178" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>178</v>
-      </c>
-      <c r="B179" t="s">
-        <v>99</v>
-      </c>
-      <c r="C179" t="s">
-        <v>99</v>
-      </c>
-      <c r="D179" t="b">
-        <v>1</v>
-      </c>
-      <c r="E179" t="s">
-        <v>99</v>
-      </c>
-      <c r="F179" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>179</v>
-      </c>
-      <c r="B180" t="s">
-        <v>99</v>
-      </c>
-      <c r="C180" t="s">
-        <v>99</v>
-      </c>
-      <c r="D180" t="b">
-        <v>1</v>
-      </c>
-      <c r="E180" t="s">
-        <v>99</v>
-      </c>
-      <c r="F180" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>180</v>
-      </c>
-      <c r="B181" t="s">
-        <v>99</v>
-      </c>
-      <c r="C181" t="s">
-        <v>99</v>
-      </c>
-      <c r="D181" t="b">
-        <v>1</v>
-      </c>
-      <c r="E181" t="s">
-        <v>99</v>
-      </c>
-      <c r="F181" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>181</v>
-      </c>
-      <c r="B182" t="s">
-        <v>99</v>
-      </c>
-      <c r="C182" t="s">
-        <v>99</v>
-      </c>
-      <c r="D182" t="b">
-        <v>1</v>
-      </c>
-      <c r="E182" t="s">
-        <v>99</v>
-      </c>
-      <c r="F182" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>182</v>
-      </c>
-      <c r="B183" t="s">
-        <v>99</v>
-      </c>
-      <c r="C183" t="s">
-        <v>99</v>
-      </c>
-      <c r="D183" t="b">
-        <v>1</v>
-      </c>
-      <c r="E183" t="s">
-        <v>99</v>
-      </c>
-      <c r="F183" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>183</v>
-      </c>
-      <c r="B184" t="s">
-        <v>99</v>
-      </c>
-      <c r="C184" t="s">
-        <v>99</v>
-      </c>
-      <c r="D184" t="b">
-        <v>1</v>
-      </c>
-      <c r="E184" t="s">
-        <v>99</v>
-      </c>
-      <c r="F184" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>184</v>
-      </c>
-      <c r="B185" t="s">
-        <v>99</v>
-      </c>
-      <c r="C185" t="s">
-        <v>99</v>
-      </c>
-      <c r="D185" t="b">
-        <v>1</v>
-      </c>
-      <c r="E185" t="s">
-        <v>99</v>
-      </c>
-      <c r="F185" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>185</v>
-      </c>
-      <c r="B186" t="s">
-        <v>99</v>
-      </c>
-      <c r="C186" t="s">
-        <v>99</v>
-      </c>
-      <c r="D186" t="b">
-        <v>1</v>
-      </c>
-      <c r="E186" t="s">
-        <v>99</v>
-      </c>
-      <c r="F186" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>186</v>
-      </c>
-      <c r="B187" t="s">
-        <v>99</v>
-      </c>
-      <c r="C187" t="s">
-        <v>99</v>
-      </c>
-      <c r="D187" t="b">
-        <v>1</v>
-      </c>
-      <c r="E187" t="s">
-        <v>99</v>
-      </c>
-      <c r="F187" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>187</v>
-      </c>
-      <c r="B188" t="s">
-        <v>99</v>
-      </c>
-      <c r="C188" t="s">
-        <v>99</v>
-      </c>
-      <c r="D188" t="b">
-        <v>1</v>
-      </c>
-      <c r="E188" t="s">
-        <v>99</v>
-      </c>
-      <c r="F188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>188</v>
-      </c>
-      <c r="B189" t="s">
-        <v>99</v>
-      </c>
-      <c r="C189" t="s">
-        <v>99</v>
-      </c>
-      <c r="D189" t="b">
-        <v>1</v>
-      </c>
-      <c r="E189" t="s">
-        <v>99</v>
-      </c>
-      <c r="F189" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>189</v>
-      </c>
-      <c r="B190" t="s">
-        <v>99</v>
-      </c>
-      <c r="C190" t="s">
-        <v>99</v>
-      </c>
-      <c r="D190" t="b">
-        <v>1</v>
-      </c>
-      <c r="E190" t="s">
-        <v>99</v>
-      </c>
-      <c r="F190" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>190</v>
-      </c>
-      <c r="B191" t="s">
-        <v>99</v>
-      </c>
-      <c r="C191" t="s">
-        <v>99</v>
-      </c>
-      <c r="D191" t="b">
-        <v>1</v>
-      </c>
-      <c r="E191" t="s">
-        <v>99</v>
-      </c>
-      <c r="F191" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>191</v>
-      </c>
-      <c r="B192" t="s">
-        <v>99</v>
-      </c>
-      <c r="C192" t="s">
-        <v>99</v>
-      </c>
-      <c r="D192" t="b">
-        <v>1</v>
-      </c>
-      <c r="E192" t="s">
-        <v>99</v>
-      </c>
-      <c r="F192" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>192</v>
-      </c>
-      <c r="B193" t="s">
-        <v>99</v>
-      </c>
-      <c r="C193" t="s">
-        <v>99</v>
-      </c>
-      <c r="D193" t="b">
-        <v>1</v>
-      </c>
-      <c r="E193" t="s">
-        <v>99</v>
-      </c>
-      <c r="F193" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>193</v>
-      </c>
-      <c r="B194" t="s">
-        <v>99</v>
-      </c>
-      <c r="C194" t="s">
-        <v>99</v>
-      </c>
-      <c r="D194" t="b">
-        <v>1</v>
-      </c>
-      <c r="E194" t="s">
-        <v>99</v>
-      </c>
-      <c r="F194" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>194</v>
-      </c>
-      <c r="B195" t="s">
-        <v>99</v>
-      </c>
-      <c r="C195" t="s">
-        <v>99</v>
-      </c>
-      <c r="D195" t="b">
-        <v>1</v>
-      </c>
-      <c r="E195" t="s">
-        <v>99</v>
-      </c>
-      <c r="F195" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>195</v>
-      </c>
-      <c r="B196" t="s">
-        <v>99</v>
-      </c>
-      <c r="C196" t="s">
-        <v>99</v>
-      </c>
-      <c r="D196" t="b">
-        <v>1</v>
-      </c>
-      <c r="E196" t="s">
-        <v>99</v>
-      </c>
-      <c r="F196" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>196</v>
-      </c>
-      <c r="B197" t="s">
-        <v>99</v>
-      </c>
-      <c r="C197" t="s">
-        <v>99</v>
-      </c>
-      <c r="D197" t="b">
-        <v>1</v>
-      </c>
-      <c r="E197" t="s">
-        <v>99</v>
-      </c>
-      <c r="F197" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>197</v>
-      </c>
-      <c r="B198" t="s">
-        <v>99</v>
-      </c>
-      <c r="C198" t="s">
-        <v>99</v>
-      </c>
-      <c r="D198" t="b">
-        <v>1</v>
-      </c>
-      <c r="E198" t="s">
-        <v>99</v>
-      </c>
-      <c r="F198" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F199" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F200" t="s">
-        <v>120</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Secret.xlsx
+++ b/Excel/Secret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671D28ED-7E13-471C-B642-418E7030831B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3770F416-866D-4B20-89C0-29E2142C0B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="60" windowWidth="21600" windowHeight="11385" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="376">
   <si>
     <t>Numero</t>
   </si>
@@ -1161,6 +1161,9 @@
   </si>
   <si>
     <t>Dia 1070 du chapitre V</t>
+  </si>
+  <si>
+    <t>Elle le dit à l'oral</t>
   </si>
 </sst>
 </file>
@@ -1537,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="F152" sqref="F152"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4282,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>280</v>
+        <v>375</v>
       </c>
       <c r="F137" t="s">
         <v>339</v>

--- a/Excel/Secret.xlsx
+++ b/Excel/Secret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3770F416-866D-4B20-89C0-29E2142C0B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFEE839-4D0A-4B16-8579-41A84E13D903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="60" windowWidth="21600" windowHeight="11385" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
@@ -185,9 +185,6 @@
     <t>Dia 140 du chapitre II</t>
   </si>
   <si>
-    <t>La liaison Ca2+ à la troponine inhibe les liaisons actine-myosine</t>
-  </si>
-  <si>
     <t>Dia 139 du chapitre II</t>
   </si>
   <si>
@@ -1164,6 +1161,9 @@
   </si>
   <si>
     <t>Elle le dit à l'oral</t>
+  </si>
+  <si>
+    <t>La liaison Ca2+ à la troponine désinhibe les liaisons actine-myosine</t>
   </si>
 </sst>
 </file>
@@ -1540,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -1645,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -1685,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -1745,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
@@ -1845,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
         <v>41</v>
@@ -1865,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
         <v>43</v>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
         <v>46</v>
@@ -1905,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -1919,16 +1919,16 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" t="s">
         <v>49</v>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1939,16 +1939,16 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" t="s">
         <v>51</v>
-      </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1956,19 +1956,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" t="s">
         <v>54</v>
-      </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1976,19 +1976,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" t="s">
         <v>56</v>
-      </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1996,19 +1996,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" t="s">
         <v>58</v>
-      </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2016,19 +2016,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>60</v>
       </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>61</v>
-      </c>
-      <c r="F24" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2036,19 +2036,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
         <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" t="s">
         <v>65</v>
-      </c>
-      <c r="F25" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2056,19 +2056,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" t="s">
         <v>67</v>
-      </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2076,19 +2076,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" t="s">
         <v>69</v>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2096,19 +2096,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" t="s">
         <v>71</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2116,19 +2116,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" t="s">
         <v>73</v>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2136,19 +2136,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" t="s">
         <v>75</v>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2156,16 +2156,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s">
         <v>7</v>
@@ -2176,16 +2176,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
         <v>79</v>
-      </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>80</v>
       </c>
       <c r="F32" t="s">
         <v>6</v>
@@ -2196,19 +2196,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" t="s">
         <v>81</v>
-      </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2216,19 +2216,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" t="s">
         <v>83</v>
-      </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2236,19 +2236,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2256,19 +2256,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2276,19 +2276,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
         <v>89</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" t="s">
         <v>90</v>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>99</v>
-      </c>
-      <c r="F37" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2296,19 +2296,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" t="s">
         <v>92</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>99</v>
-      </c>
-      <c r="F38" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2316,19 +2316,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" t="s">
         <v>94</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2336,19 +2336,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2356,19 +2356,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2376,19 +2376,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" t="s">
         <v>102</v>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2396,19 +2396,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" t="s">
         <v>104</v>
-      </c>
-      <c r="D43" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>99</v>
-      </c>
-      <c r="F43" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2416,19 +2416,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
         <v>106</v>
       </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>107</v>
-      </c>
-      <c r="F44" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2436,19 +2436,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" t="s">
         <v>109</v>
-      </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>99</v>
-      </c>
-      <c r="F45" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2456,19 +2456,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2476,19 +2476,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2496,19 +2496,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2516,19 +2516,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
         <v>118</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" t="s">
         <v>119</v>
-      </c>
-      <c r="D49" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>99</v>
-      </c>
-      <c r="F49" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2536,19 +2536,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>121</v>
-      </c>
-      <c r="D50" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2556,19 +2556,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2576,19 +2576,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>125</v>
-      </c>
-      <c r="D52" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
-        <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2596,19 +2596,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" t="s">
         <v>127</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
         <v>128</v>
-      </c>
-      <c r="D53" t="b">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
-        <v>99</v>
-      </c>
-      <c r="F53" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2616,19 +2616,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2636,19 +2636,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2656,19 +2656,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
         <v>133</v>
       </c>
-      <c r="D56" t="b">
-        <v>1</v>
-      </c>
-      <c r="E56" t="s">
-        <v>134</v>
-      </c>
       <c r="F56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2676,19 +2676,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" t="s">
         <v>135</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" t="s">
         <v>136</v>
-      </c>
-      <c r="D57" t="b">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>99</v>
-      </c>
-      <c r="F57" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2696,19 +2696,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" t="s">
         <v>138</v>
-      </c>
-      <c r="D58" t="b">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>99</v>
-      </c>
-      <c r="F58" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2716,19 +2716,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2736,19 +2736,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2756,19 +2756,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" t="s">
         <v>142</v>
-      </c>
-      <c r="C61" t="s">
-        <v>143</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2776,19 +2776,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>98</v>
+      </c>
+      <c r="F62" t="s">
         <v>146</v>
-      </c>
-      <c r="D62" t="b">
-        <v>1</v>
-      </c>
-      <c r="E62" t="s">
-        <v>99</v>
-      </c>
-      <c r="F62" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2796,19 +2796,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" t="s">
         <v>148</v>
-      </c>
-      <c r="D63" t="b">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
-        <v>99</v>
-      </c>
-      <c r="F63" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2816,19 +2816,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C64" t="s">
+        <v>149</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>98</v>
+      </c>
+      <c r="F64" t="s">
         <v>150</v>
-      </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" t="s">
-        <v>99</v>
-      </c>
-      <c r="F64" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2836,19 +2836,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" t="s">
         <v>152</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>98</v>
+      </c>
+      <c r="F65" t="s">
         <v>153</v>
-      </c>
-      <c r="D65" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>99</v>
-      </c>
-      <c r="F65" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2856,19 +2856,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="s">
+        <v>155</v>
+      </c>
+      <c r="F66" t="s">
         <v>156</v>
-      </c>
-      <c r="F66" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2876,19 +2876,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>98</v>
+      </c>
+      <c r="F67" t="s">
         <v>158</v>
-      </c>
-      <c r="D67" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67" t="s">
-        <v>99</v>
-      </c>
-      <c r="F67" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2896,19 +2896,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
         <v>160</v>
       </c>
-      <c r="D68" t="b">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>161</v>
-      </c>
       <c r="F68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2916,19 +2916,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
         <v>162</v>
       </c>
-      <c r="D69" t="b">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
-        <v>163</v>
-      </c>
       <c r="F69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2936,19 +2936,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" t="s">
         <v>164</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>98</v>
+      </c>
+      <c r="F70" t="s">
         <v>165</v>
-      </c>
-      <c r="D70" t="b">
-        <v>1</v>
-      </c>
-      <c r="E70" t="s">
-        <v>99</v>
-      </c>
-      <c r="F70" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2956,19 +2956,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C71" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>98</v>
+      </c>
+      <c r="F71" t="s">
         <v>167</v>
-      </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>99</v>
-      </c>
-      <c r="F71" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2976,19 +2976,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C72" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>98</v>
+      </c>
+      <c r="F72" t="s">
         <v>169</v>
-      </c>
-      <c r="D72" t="b">
-        <v>1</v>
-      </c>
-      <c r="E72" t="s">
-        <v>99</v>
-      </c>
-      <c r="F72" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2996,19 +2996,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C73" t="s">
+        <v>170</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" t="s">
         <v>171</v>
-      </c>
-      <c r="D73" t="b">
-        <v>1</v>
-      </c>
-      <c r="E73" t="s">
-        <v>99</v>
-      </c>
-      <c r="F73" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3016,19 +3016,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" t="s">
         <v>173</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>98</v>
+      </c>
+      <c r="F74" t="s">
         <v>174</v>
-      </c>
-      <c r="D74" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" t="s">
-        <v>99</v>
-      </c>
-      <c r="F74" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3036,19 +3036,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C75" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>98</v>
+      </c>
+      <c r="F75" t="s">
         <v>176</v>
-      </c>
-      <c r="D75" t="b">
-        <v>1</v>
-      </c>
-      <c r="E75" t="s">
-        <v>99</v>
-      </c>
-      <c r="F75" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3056,19 +3056,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C76" t="s">
+        <v>177</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>98</v>
+      </c>
+      <c r="F76" t="s">
         <v>178</v>
-      </c>
-      <c r="D76" t="b">
-        <v>1</v>
-      </c>
-      <c r="E76" t="s">
-        <v>99</v>
-      </c>
-      <c r="F76" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3076,19 +3076,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C77" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F77" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3096,19 +3096,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>181</v>
+      </c>
+      <c r="C78" t="s">
         <v>182</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>98</v>
+      </c>
+      <c r="F78" t="s">
         <v>183</v>
-      </c>
-      <c r="D78" t="b">
-        <v>1</v>
-      </c>
-      <c r="E78" t="s">
-        <v>99</v>
-      </c>
-      <c r="F78" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3116,19 +3116,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C79" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
         <v>185</v>
       </c>
-      <c r="D79" t="b">
-        <v>1</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>186</v>
-      </c>
-      <c r="F79" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3136,19 +3136,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C80" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>98</v>
+      </c>
+      <c r="F80" t="s">
         <v>188</v>
-      </c>
-      <c r="D80" t="b">
-        <v>1</v>
-      </c>
-      <c r="E80" t="s">
-        <v>99</v>
-      </c>
-      <c r="F80" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3156,19 +3156,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3176,19 +3176,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>191</v>
+      </c>
+      <c r="C82" t="s">
         <v>192</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>98</v>
+      </c>
+      <c r="F82" t="s">
         <v>193</v>
-      </c>
-      <c r="D82" t="b">
-        <v>1</v>
-      </c>
-      <c r="E82" t="s">
-        <v>99</v>
-      </c>
-      <c r="F82" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3196,19 +3196,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C83" t="s">
+        <v>195</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>98</v>
+      </c>
+      <c r="F83" t="s">
         <v>196</v>
-      </c>
-      <c r="D83" t="b">
-        <v>1</v>
-      </c>
-      <c r="E83" t="s">
-        <v>99</v>
-      </c>
-      <c r="F83" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3216,19 +3216,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C84" t="s">
+        <v>197</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>98</v>
+      </c>
+      <c r="F84" t="s">
         <v>198</v>
-      </c>
-      <c r="D84" t="b">
-        <v>1</v>
-      </c>
-      <c r="E84" t="s">
-        <v>99</v>
-      </c>
-      <c r="F84" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3236,19 +3236,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C85" t="s">
+        <v>200</v>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>199</v>
+      </c>
+      <c r="F85" t="s">
         <v>201</v>
-      </c>
-      <c r="D85" t="b">
-        <v>1</v>
-      </c>
-      <c r="E85" t="s">
-        <v>200</v>
-      </c>
-      <c r="F85" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3256,19 +3256,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" t="s">
         <v>203</v>
-      </c>
-      <c r="C86" t="s">
-        <v>204</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3276,19 +3276,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C87" t="s">
+        <v>204</v>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>98</v>
+      </c>
+      <c r="F87" t="s">
         <v>205</v>
-      </c>
-      <c r="D87" t="b">
-        <v>1</v>
-      </c>
-      <c r="E87" t="s">
-        <v>99</v>
-      </c>
-      <c r="F87" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3296,19 +3296,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C88" t="s">
+        <v>207</v>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>98</v>
+      </c>
+      <c r="F88" t="s">
         <v>208</v>
-      </c>
-      <c r="D88" t="b">
-        <v>1</v>
-      </c>
-      <c r="E88" t="s">
-        <v>99</v>
-      </c>
-      <c r="F88" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3316,19 +3316,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C89" t="s">
+        <v>209</v>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
         <v>210</v>
       </c>
-      <c r="D89" t="b">
-        <v>1</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>211</v>
-      </c>
-      <c r="F89" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3336,19 +3336,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C90" t="s">
+        <v>214</v>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
         <v>215</v>
       </c>
-      <c r="D90" t="b">
-        <v>1</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>216</v>
-      </c>
-      <c r="F90" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3356,19 +3356,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C91" t="s">
+        <v>217</v>
+      </c>
+      <c r="D91" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>98</v>
+      </c>
+      <c r="F91" t="s">
         <v>218</v>
-      </c>
-      <c r="D91" t="b">
-        <v>1</v>
-      </c>
-      <c r="E91" t="s">
-        <v>99</v>
-      </c>
-      <c r="F91" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3376,19 +3376,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C92" t="s">
+        <v>219</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>98</v>
+      </c>
+      <c r="F92" t="s">
         <v>220</v>
-      </c>
-      <c r="D92" t="b">
-        <v>1</v>
-      </c>
-      <c r="E92" t="s">
-        <v>99</v>
-      </c>
-      <c r="F92" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3396,19 +3396,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C93" t="s">
+        <v>221</v>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
         <v>222</v>
       </c>
-      <c r="D93" t="b">
-        <v>1</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>223</v>
-      </c>
-      <c r="F93" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3416,19 +3416,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C94" t="s">
+        <v>226</v>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>98</v>
+      </c>
+      <c r="F94" t="s">
         <v>227</v>
-      </c>
-      <c r="D94" t="b">
-        <v>1</v>
-      </c>
-      <c r="E94" t="s">
-        <v>99</v>
-      </c>
-      <c r="F94" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3436,19 +3436,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C95" t="s">
+        <v>228</v>
+      </c>
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>98</v>
+      </c>
+      <c r="F95" t="s">
         <v>229</v>
-      </c>
-      <c r="D95" t="b">
-        <v>1</v>
-      </c>
-      <c r="E95" t="s">
-        <v>99</v>
-      </c>
-      <c r="F95" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3456,19 +3456,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
       </c>
       <c r="E96" t="s">
+        <v>231</v>
+      </c>
+      <c r="F96" t="s">
         <v>232</v>
-      </c>
-      <c r="F96" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3476,19 +3476,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C97" t="s">
+        <v>233</v>
+      </c>
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>98</v>
+      </c>
+      <c r="F97" t="s">
         <v>234</v>
-      </c>
-      <c r="D97" t="b">
-        <v>1</v>
-      </c>
-      <c r="E97" t="s">
-        <v>99</v>
-      </c>
-      <c r="F97" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3496,19 +3496,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C98" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F98" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3516,19 +3516,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C99" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F99" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3536,19 +3536,19 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D100" t="b">
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F100" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3556,19 +3556,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" t="s">
+        <v>242</v>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
         <v>243</v>
       </c>
-      <c r="D101" t="b">
-        <v>1</v>
-      </c>
-      <c r="E101" t="s">
-        <v>244</v>
-      </c>
       <c r="F101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3576,19 +3576,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C102" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
       </c>
       <c r="E102" t="s">
+        <v>245</v>
+      </c>
+      <c r="F102" t="s">
         <v>246</v>
-      </c>
-      <c r="F102" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3596,19 +3596,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C103" t="s">
+        <v>247</v>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>98</v>
+      </c>
+      <c r="F103" t="s">
         <v>248</v>
-      </c>
-      <c r="D103" t="b">
-        <v>1</v>
-      </c>
-      <c r="E103" t="s">
-        <v>99</v>
-      </c>
-      <c r="F103" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3616,19 +3616,19 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D104" t="b">
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F104" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3636,19 +3636,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F105" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3656,19 +3656,19 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C106" t="s">
+        <v>254</v>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>98</v>
+      </c>
+      <c r="F106" t="s">
         <v>255</v>
-      </c>
-      <c r="D106" t="b">
-        <v>1</v>
-      </c>
-      <c r="E106" t="s">
-        <v>99</v>
-      </c>
-      <c r="F106" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3676,19 +3676,19 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C107" t="s">
+        <v>256</v>
+      </c>
+      <c r="D107" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>98</v>
+      </c>
+      <c r="F107" t="s">
         <v>257</v>
-      </c>
-      <c r="D107" t="b">
-        <v>1</v>
-      </c>
-      <c r="E107" t="s">
-        <v>99</v>
-      </c>
-      <c r="F107" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3696,19 +3696,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>258</v>
+      </c>
+      <c r="C108" t="s">
         <v>259</v>
       </c>
-      <c r="C108" t="s">
-        <v>260</v>
-      </c>
       <c r="D108" t="b">
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F108" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3716,19 +3716,19 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C109" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F109" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3736,19 +3736,19 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C110" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F110" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3756,19 +3756,19 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C111" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F111" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3776,19 +3776,19 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>269</v>
+      </c>
+      <c r="C112" t="s">
         <v>270</v>
       </c>
-      <c r="C112" t="s">
-        <v>271</v>
-      </c>
       <c r="D112" t="b">
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F112" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3796,19 +3796,19 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C113" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F113" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3816,19 +3816,19 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C114" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F114" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3836,19 +3836,19 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C115" t="s">
+        <v>273</v>
+      </c>
+      <c r="D115" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>98</v>
+      </c>
+      <c r="F115" t="s">
         <v>274</v>
-      </c>
-      <c r="D115" t="b">
-        <v>1</v>
-      </c>
-      <c r="E115" t="s">
-        <v>99</v>
-      </c>
-      <c r="F115" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3856,19 +3856,19 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>276</v>
+      </c>
+      <c r="C116" t="s">
         <v>277</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>279</v>
+      </c>
+      <c r="F116" t="s">
         <v>278</v>
-      </c>
-      <c r="D116" t="b">
-        <v>1</v>
-      </c>
-      <c r="E116" t="s">
-        <v>280</v>
-      </c>
-      <c r="F116" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3876,19 +3876,19 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C117" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F117" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3896,19 +3896,19 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C118" t="s">
+        <v>282</v>
+      </c>
+      <c r="D118" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>98</v>
+      </c>
+      <c r="F118" t="s">
         <v>283</v>
-      </c>
-      <c r="D118" t="b">
-        <v>1</v>
-      </c>
-      <c r="E118" t="s">
-        <v>99</v>
-      </c>
-      <c r="F118" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3916,19 +3916,19 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C119" t="s">
+        <v>284</v>
+      </c>
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>286</v>
+      </c>
+      <c r="F119" t="s">
         <v>285</v>
-      </c>
-      <c r="D119" t="b">
-        <v>1</v>
-      </c>
-      <c r="E119" t="s">
-        <v>287</v>
-      </c>
-      <c r="F119" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3936,19 +3936,19 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>287</v>
+      </c>
+      <c r="C120" t="s">
         <v>288</v>
-      </c>
-      <c r="C120" t="s">
-        <v>289</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
       </c>
       <c r="E120" t="s">
+        <v>289</v>
+      </c>
+      <c r="F120" t="s">
         <v>290</v>
-      </c>
-      <c r="F120" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3956,19 +3956,19 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C121" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F121" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3976,19 +3976,19 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C122" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
       </c>
       <c r="E122" t="s">
+        <v>295</v>
+      </c>
+      <c r="F122" t="s">
         <v>296</v>
-      </c>
-      <c r="F122" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3996,19 +3996,19 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C123" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
       </c>
       <c r="E123" t="s">
+        <v>298</v>
+      </c>
+      <c r="F123" t="s">
         <v>299</v>
-      </c>
-      <c r="F123" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4016,19 +4016,19 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>300</v>
+      </c>
+      <c r="C124" t="s">
         <v>301</v>
-      </c>
-      <c r="C124" t="s">
-        <v>302</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F124" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4036,19 +4036,19 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C125" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4056,19 +4056,19 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C126" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F126" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4076,19 +4076,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C127" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D127" t="b">
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F127" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4096,19 +4096,19 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>311</v>
+      </c>
+      <c r="C128" t="s">
         <v>312</v>
       </c>
-      <c r="C128" t="s">
-        <v>313</v>
-      </c>
       <c r="D128" t="b">
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F128" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4116,19 +4116,19 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C129" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D129" t="b">
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F129" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4136,19 +4136,19 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C130" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D130" t="b">
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F130" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4156,19 +4156,19 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C131" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D131" t="b">
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F131" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4176,19 +4176,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>322</v>
+      </c>
+      <c r="C132" t="s">
         <v>323</v>
-      </c>
-      <c r="C132" t="s">
-        <v>324</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F132" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4196,19 +4196,19 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C133" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D133" t="b">
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F133" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4216,19 +4216,19 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C134" t="s">
+        <v>329</v>
+      </c>
+      <c r="D134" t="b">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
         <v>330</v>
       </c>
-      <c r="D134" t="b">
-        <v>1</v>
-      </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>331</v>
-      </c>
-      <c r="F134" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4236,19 +4236,19 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C135" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D135" t="b">
         <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F135" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4256,19 +4256,19 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
+        <v>333</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
       </c>
       <c r="E136" t="s">
+        <v>335</v>
+      </c>
+      <c r="F136" t="s">
         <v>336</v>
-      </c>
-      <c r="F136" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4276,19 +4276,19 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C137" t="s">
+        <v>337</v>
+      </c>
+      <c r="D137" t="b">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>374</v>
+      </c>
+      <c r="F137" t="s">
         <v>338</v>
-      </c>
-      <c r="D137" t="b">
-        <v>1</v>
-      </c>
-      <c r="E137" t="s">
-        <v>375</v>
-      </c>
-      <c r="F137" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4296,19 +4296,19 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C138" t="s">
+        <v>339</v>
+      </c>
+      <c r="D138" t="b">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>341</v>
+      </c>
+      <c r="F138" t="s">
         <v>340</v>
-      </c>
-      <c r="D138" t="b">
-        <v>1</v>
-      </c>
-      <c r="E138" t="s">
-        <v>342</v>
-      </c>
-      <c r="F138" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4316,19 +4316,19 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C139" t="s">
+        <v>342</v>
+      </c>
+      <c r="D139" t="b">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>344</v>
+      </c>
+      <c r="F139" t="s">
         <v>343</v>
-      </c>
-      <c r="D139" t="b">
-        <v>1</v>
-      </c>
-      <c r="E139" t="s">
-        <v>345</v>
-      </c>
-      <c r="F139" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4336,19 +4336,19 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
+        <v>345</v>
+      </c>
+      <c r="C140" t="s">
         <v>346</v>
-      </c>
-      <c r="C140" t="s">
-        <v>347</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F140" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4356,19 +4356,19 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C141" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
       </c>
       <c r="E141" t="s">
+        <v>352</v>
+      </c>
+      <c r="F141" t="s">
         <v>353</v>
-      </c>
-      <c r="F141" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4376,19 +4376,19 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C142" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F142" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4396,19 +4396,19 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C143" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D143" t="b">
         <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F143" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4416,19 +4416,19 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
+        <v>356</v>
+      </c>
+      <c r="C144" t="s">
         <v>357</v>
-      </c>
-      <c r="C144" t="s">
-        <v>358</v>
       </c>
       <c r="D144" t="b">
         <v>0</v>
       </c>
       <c r="E144" t="s">
+        <v>365</v>
+      </c>
+      <c r="F144" t="s">
         <v>366</v>
-      </c>
-      <c r="F144" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4436,19 +4436,19 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C145" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D145" t="b">
         <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F145" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4456,19 +4456,19 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C146" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D146" t="b">
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F146" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4476,19 +4476,19 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C147" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D147" t="b">
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F147" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4496,19 +4496,19 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C148" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D148" t="b">
         <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F148" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4516,19 +4516,19 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C149" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D149" t="b">
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F149" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4536,19 +4536,19 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C150" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D150" t="b">
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F150" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4556,19 +4556,19 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C151" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D151" t="b">
         <v>1</v>
       </c>
       <c r="E151" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F151" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Secret.xlsx
+++ b/Excel/Secret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFEE839-4D0A-4B16-8579-41A84E13D903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15ECD7B-BC56-4FD5-BF98-1634B5886436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="60" windowWidth="21600" windowHeight="11385" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
@@ -1540,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3842,7 +3842,7 @@
         <v>273</v>
       </c>
       <c r="D115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" t="s">
         <v>98</v>

--- a/Excel/Secret.xlsx
+++ b/Excel/Secret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15ECD7B-BC56-4FD5-BF98-1634B5886436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0562E222-67AB-49F0-B93B-002C38C6BBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="60" windowWidth="21600" windowHeight="11385" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
@@ -1540,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2842,7 +2842,7 @@
         <v>152</v>
       </c>
       <c r="D65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="s">
         <v>98</v>

--- a/Excel/Secret.xlsx
+++ b/Excel/Secret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0562E222-67AB-49F0-B93B-002C38C6BBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0C4711-766A-4E3C-9D1C-C3196517292C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="60" windowWidth="21600" windowHeight="11385" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
@@ -494,9 +494,6 @@
     <t xml:space="preserve">concernant la lésion dans l’ADN humain </t>
   </si>
   <si>
-    <t>Le système de réparation par excision de base détecte les distorsions dans l’ADN</t>
-  </si>
-  <si>
     <t>Dia 414 du chapitre III</t>
   </si>
   <si>
@@ -1164,6 +1161,9 @@
   </si>
   <si>
     <t>La liaison Ca2+ à la troponine désinhibe les liaisons actine-myosine</t>
+  </si>
+  <si>
+    <t>Le système de réparation par excision de nucléotides de base détecte les distorsions dans l’ADN</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1541,7 @@
   <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,7 +1919,7 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F40" t="s">
         <v>96</v>
@@ -2839,16 +2839,16 @@
         <v>151</v>
       </c>
       <c r="C65" t="s">
+        <v>375</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>98</v>
+      </c>
+      <c r="F65" t="s">
         <v>152</v>
-      </c>
-      <c r="D65" t="b">
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>98</v>
-      </c>
-      <c r="F65" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2859,16 +2859,16 @@
         <v>98</v>
       </c>
       <c r="C66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="s">
+        <v>154</v>
+      </c>
+      <c r="F66" t="s">
         <v>155</v>
-      </c>
-      <c r="F66" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2879,16 +2879,16 @@
         <v>98</v>
       </c>
       <c r="C67" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>98</v>
+      </c>
+      <c r="F67" t="s">
         <v>157</v>
-      </c>
-      <c r="D67" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67" t="s">
-        <v>98</v>
-      </c>
-      <c r="F67" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2899,16 +2899,16 @@
         <v>98</v>
       </c>
       <c r="C68" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
         <v>159</v>
       </c>
-      <c r="D68" t="b">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>160</v>
-      </c>
       <c r="F68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2919,16 +2919,16 @@
         <v>98</v>
       </c>
       <c r="C69" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
         <v>161</v>
       </c>
-      <c r="D69" t="b">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
-        <v>162</v>
-      </c>
       <c r="F69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2936,19 +2936,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" t="s">
         <v>163</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>98</v>
+      </c>
+      <c r="F70" t="s">
         <v>164</v>
-      </c>
-      <c r="D70" t="b">
-        <v>1</v>
-      </c>
-      <c r="E70" t="s">
-        <v>98</v>
-      </c>
-      <c r="F70" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2956,19 +2956,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C71" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>98</v>
+      </c>
+      <c r="F71" t="s">
         <v>166</v>
-      </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>98</v>
-      </c>
-      <c r="F71" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2976,19 +2976,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C72" t="s">
+        <v>167</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>98</v>
+      </c>
+      <c r="F72" t="s">
         <v>168</v>
-      </c>
-      <c r="D72" t="b">
-        <v>1</v>
-      </c>
-      <c r="E72" t="s">
-        <v>98</v>
-      </c>
-      <c r="F72" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2996,19 +2996,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C73" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" t="s">
         <v>170</v>
-      </c>
-      <c r="D73" t="b">
-        <v>1</v>
-      </c>
-      <c r="E73" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3016,19 +3016,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" t="s">
         <v>172</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>98</v>
+      </c>
+      <c r="F74" t="s">
         <v>173</v>
-      </c>
-      <c r="D74" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" t="s">
-        <v>98</v>
-      </c>
-      <c r="F74" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3036,19 +3036,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C75" t="s">
+        <v>174</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>98</v>
+      </c>
+      <c r="F75" t="s">
         <v>175</v>
-      </c>
-      <c r="D75" t="b">
-        <v>1</v>
-      </c>
-      <c r="E75" t="s">
-        <v>98</v>
-      </c>
-      <c r="F75" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3056,19 +3056,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C76" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>98</v>
+      </c>
+      <c r="F76" t="s">
         <v>177</v>
-      </c>
-      <c r="D76" t="b">
-        <v>1</v>
-      </c>
-      <c r="E76" t="s">
-        <v>98</v>
-      </c>
-      <c r="F76" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3076,10 +3076,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C77" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>98</v>
       </c>
       <c r="F77" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3096,19 +3096,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>180</v>
+      </c>
+      <c r="C78" t="s">
         <v>181</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>98</v>
+      </c>
+      <c r="F78" t="s">
         <v>182</v>
-      </c>
-      <c r="D78" t="b">
-        <v>1</v>
-      </c>
-      <c r="E78" t="s">
-        <v>98</v>
-      </c>
-      <c r="F78" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3116,19 +3116,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C79" t="s">
+        <v>183</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
         <v>184</v>
       </c>
-      <c r="D79" t="b">
-        <v>1</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>185</v>
-      </c>
-      <c r="F79" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3136,19 +3136,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C80" t="s">
+        <v>186</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>98</v>
+      </c>
+      <c r="F80" t="s">
         <v>187</v>
-      </c>
-      <c r="D80" t="b">
-        <v>1</v>
-      </c>
-      <c r="E80" t="s">
-        <v>98</v>
-      </c>
-      <c r="F80" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3156,19 +3156,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3176,19 +3176,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>190</v>
+      </c>
+      <c r="C82" t="s">
         <v>191</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>98</v>
+      </c>
+      <c r="F82" t="s">
         <v>192</v>
-      </c>
-      <c r="D82" t="b">
-        <v>1</v>
-      </c>
-      <c r="E82" t="s">
-        <v>98</v>
-      </c>
-      <c r="F82" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3196,19 +3196,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C83" t="s">
+        <v>194</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>98</v>
+      </c>
+      <c r="F83" t="s">
         <v>195</v>
-      </c>
-      <c r="D83" t="b">
-        <v>1</v>
-      </c>
-      <c r="E83" t="s">
-        <v>98</v>
-      </c>
-      <c r="F83" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3216,19 +3216,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C84" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>98</v>
+      </c>
+      <c r="F84" t="s">
         <v>197</v>
-      </c>
-      <c r="D84" t="b">
-        <v>1</v>
-      </c>
-      <c r="E84" t="s">
-        <v>98</v>
-      </c>
-      <c r="F84" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3236,19 +3236,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C85" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>198</v>
+      </c>
+      <c r="F85" t="s">
         <v>200</v>
-      </c>
-      <c r="D85" t="b">
-        <v>1</v>
-      </c>
-      <c r="E85" t="s">
-        <v>199</v>
-      </c>
-      <c r="F85" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3256,19 +3256,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>201</v>
+      </c>
+      <c r="C86" t="s">
         <v>202</v>
-      </c>
-      <c r="C86" t="s">
-        <v>203</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3276,19 +3276,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C87" t="s">
+        <v>203</v>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>98</v>
+      </c>
+      <c r="F87" t="s">
         <v>204</v>
-      </c>
-      <c r="D87" t="b">
-        <v>1</v>
-      </c>
-      <c r="E87" t="s">
-        <v>98</v>
-      </c>
-      <c r="F87" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3296,19 +3296,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C88" t="s">
+        <v>206</v>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>98</v>
+      </c>
+      <c r="F88" t="s">
         <v>207</v>
-      </c>
-      <c r="D88" t="b">
-        <v>1</v>
-      </c>
-      <c r="E88" t="s">
-        <v>98</v>
-      </c>
-      <c r="F88" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3316,19 +3316,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C89" t="s">
+        <v>208</v>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
         <v>209</v>
       </c>
-      <c r="D89" t="b">
-        <v>1</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>210</v>
-      </c>
-      <c r="F89" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3336,19 +3336,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C90" t="s">
+        <v>213</v>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
         <v>214</v>
       </c>
-      <c r="D90" t="b">
-        <v>1</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>215</v>
-      </c>
-      <c r="F90" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3356,19 +3356,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C91" t="s">
+        <v>216</v>
+      </c>
+      <c r="D91" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>98</v>
+      </c>
+      <c r="F91" t="s">
         <v>217</v>
-      </c>
-      <c r="D91" t="b">
-        <v>1</v>
-      </c>
-      <c r="E91" t="s">
-        <v>98</v>
-      </c>
-      <c r="F91" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3376,19 +3376,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C92" t="s">
+        <v>218</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>98</v>
+      </c>
+      <c r="F92" t="s">
         <v>219</v>
-      </c>
-      <c r="D92" t="b">
-        <v>1</v>
-      </c>
-      <c r="E92" t="s">
-        <v>98</v>
-      </c>
-      <c r="F92" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3396,19 +3396,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C93" t="s">
+        <v>220</v>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
         <v>221</v>
       </c>
-      <c r="D93" t="b">
-        <v>1</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>222</v>
-      </c>
-      <c r="F93" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3416,19 +3416,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C94" t="s">
+        <v>225</v>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>98</v>
+      </c>
+      <c r="F94" t="s">
         <v>226</v>
-      </c>
-      <c r="D94" t="b">
-        <v>1</v>
-      </c>
-      <c r="E94" t="s">
-        <v>98</v>
-      </c>
-      <c r="F94" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3436,19 +3436,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C95" t="s">
+        <v>227</v>
+      </c>
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>98</v>
+      </c>
+      <c r="F95" t="s">
         <v>228</v>
-      </c>
-      <c r="D95" t="b">
-        <v>1</v>
-      </c>
-      <c r="E95" t="s">
-        <v>98</v>
-      </c>
-      <c r="F95" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3456,19 +3456,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C96" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
       </c>
       <c r="E96" t="s">
+        <v>230</v>
+      </c>
+      <c r="F96" t="s">
         <v>231</v>
-      </c>
-      <c r="F96" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3476,19 +3476,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C97" t="s">
+        <v>232</v>
+      </c>
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>98</v>
+      </c>
+      <c r="F97" t="s">
         <v>233</v>
-      </c>
-      <c r="D97" t="b">
-        <v>1</v>
-      </c>
-      <c r="E97" t="s">
-        <v>98</v>
-      </c>
-      <c r="F97" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3496,19 +3496,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F98" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3516,10 +3516,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C99" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
@@ -3528,7 +3528,7 @@
         <v>98</v>
       </c>
       <c r="F99" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3539,7 +3539,7 @@
         <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D100" t="b">
         <v>1</v>
@@ -3548,7 +3548,7 @@
         <v>98</v>
       </c>
       <c r="F100" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3559,13 +3559,13 @@
         <v>98</v>
       </c>
       <c r="C101" t="s">
+        <v>241</v>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
         <v>242</v>
-      </c>
-      <c r="D101" t="b">
-        <v>1</v>
-      </c>
-      <c r="E101" t="s">
-        <v>243</v>
       </c>
       <c r="F101" t="s">
         <v>98</v>
@@ -3579,16 +3579,16 @@
         <v>98</v>
       </c>
       <c r="C102" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
       </c>
       <c r="E102" t="s">
+        <v>244</v>
+      </c>
+      <c r="F102" t="s">
         <v>245</v>
-      </c>
-      <c r="F102" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3599,16 +3599,16 @@
         <v>98</v>
       </c>
       <c r="C103" t="s">
+        <v>246</v>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>98</v>
+      </c>
+      <c r="F103" t="s">
         <v>247</v>
-      </c>
-      <c r="D103" t="b">
-        <v>1</v>
-      </c>
-      <c r="E103" t="s">
-        <v>98</v>
-      </c>
-      <c r="F103" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3619,16 +3619,16 @@
         <v>98</v>
       </c>
       <c r="C104" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D104" t="b">
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3639,7 +3639,7 @@
         <v>98</v>
       </c>
       <c r="C105" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>98</v>
       </c>
       <c r="F105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3659,16 +3659,16 @@
         <v>98</v>
       </c>
       <c r="C106" t="s">
+        <v>253</v>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>98</v>
+      </c>
+      <c r="F106" t="s">
         <v>254</v>
-      </c>
-      <c r="D106" t="b">
-        <v>1</v>
-      </c>
-      <c r="E106" t="s">
-        <v>98</v>
-      </c>
-      <c r="F106" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3679,16 +3679,16 @@
         <v>98</v>
       </c>
       <c r="C107" t="s">
+        <v>255</v>
+      </c>
+      <c r="D107" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>98</v>
+      </c>
+      <c r="F107" t="s">
         <v>256</v>
-      </c>
-      <c r="D107" t="b">
-        <v>1</v>
-      </c>
-      <c r="E107" t="s">
-        <v>98</v>
-      </c>
-      <c r="F107" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3696,19 +3696,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>257</v>
+      </c>
+      <c r="C108" t="s">
         <v>258</v>
       </c>
-      <c r="C108" t="s">
-        <v>259</v>
-      </c>
       <c r="D108" t="b">
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F108" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3716,10 +3716,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C109" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
@@ -3728,7 +3728,7 @@
         <v>98</v>
       </c>
       <c r="F109" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3736,19 +3736,19 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C110" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F110" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3756,10 +3756,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C111" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
@@ -3768,7 +3768,7 @@
         <v>98</v>
       </c>
       <c r="F111" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3776,11 +3776,11 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>268</v>
+      </c>
+      <c r="C112" t="s">
         <v>269</v>
       </c>
-      <c r="C112" t="s">
-        <v>270</v>
-      </c>
       <c r="D112" t="b">
         <v>1</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>98</v>
       </c>
       <c r="F112" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3796,10 +3796,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C113" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
@@ -3808,7 +3808,7 @@
         <v>98</v>
       </c>
       <c r="F113" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3816,10 +3816,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C114" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
@@ -3828,7 +3828,7 @@
         <v>98</v>
       </c>
       <c r="F114" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3836,10 +3836,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C115" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>98</v>
       </c>
       <c r="F115" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3856,19 +3856,19 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>275</v>
+      </c>
+      <c r="C116" t="s">
         <v>276</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>278</v>
+      </c>
+      <c r="F116" t="s">
         <v>277</v>
-      </c>
-      <c r="D116" t="b">
-        <v>1</v>
-      </c>
-      <c r="E116" t="s">
-        <v>279</v>
-      </c>
-      <c r="F116" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3876,10 +3876,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C117" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>98</v>
       </c>
       <c r="F117" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3896,19 +3896,19 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C118" t="s">
+        <v>281</v>
+      </c>
+      <c r="D118" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>98</v>
+      </c>
+      <c r="F118" t="s">
         <v>282</v>
-      </c>
-      <c r="D118" t="b">
-        <v>1</v>
-      </c>
-      <c r="E118" t="s">
-        <v>98</v>
-      </c>
-      <c r="F118" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3916,19 +3916,19 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C119" t="s">
+        <v>283</v>
+      </c>
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>285</v>
+      </c>
+      <c r="F119" t="s">
         <v>284</v>
-      </c>
-      <c r="D119" t="b">
-        <v>1</v>
-      </c>
-      <c r="E119" t="s">
-        <v>286</v>
-      </c>
-      <c r="F119" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3936,19 +3936,19 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>286</v>
+      </c>
+      <c r="C120" t="s">
         <v>287</v>
-      </c>
-      <c r="C120" t="s">
-        <v>288</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
       </c>
       <c r="E120" t="s">
+        <v>288</v>
+      </c>
+      <c r="F120" t="s">
         <v>289</v>
-      </c>
-      <c r="F120" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3956,19 +3956,19 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C121" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F121" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3976,19 +3976,19 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C122" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
       </c>
       <c r="E122" t="s">
+        <v>294</v>
+      </c>
+      <c r="F122" t="s">
         <v>295</v>
-      </c>
-      <c r="F122" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3996,19 +3996,19 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C123" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
       </c>
       <c r="E123" t="s">
+        <v>297</v>
+      </c>
+      <c r="F123" t="s">
         <v>298</v>
-      </c>
-      <c r="F123" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4016,10 +4016,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>299</v>
+      </c>
+      <c r="C124" t="s">
         <v>300</v>
-      </c>
-      <c r="C124" t="s">
-        <v>301</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>98</v>
       </c>
       <c r="F124" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4036,10 +4036,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C125" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
@@ -4048,7 +4048,7 @@
         <v>98</v>
       </c>
       <c r="F125" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4056,19 +4056,19 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C126" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F126" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4076,19 +4076,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C127" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D127" t="b">
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F127" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4096,19 +4096,19 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>310</v>
+      </c>
+      <c r="C128" t="s">
         <v>311</v>
       </c>
-      <c r="C128" t="s">
-        <v>312</v>
-      </c>
       <c r="D128" t="b">
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F128" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4116,19 +4116,19 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C129" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D129" t="b">
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F129" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4136,10 +4136,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C130" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D130" t="b">
         <v>1</v>
@@ -4148,7 +4148,7 @@
         <v>98</v>
       </c>
       <c r="F130" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4156,10 +4156,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C131" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D131" t="b">
         <v>1</v>
@@ -4168,7 +4168,7 @@
         <v>98</v>
       </c>
       <c r="F131" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4176,19 +4176,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>321</v>
+      </c>
+      <c r="C132" t="s">
         <v>322</v>
-      </c>
-      <c r="C132" t="s">
-        <v>323</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F132" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4196,19 +4196,19 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C133" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D133" t="b">
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F133" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4216,19 +4216,19 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C134" t="s">
+        <v>328</v>
+      </c>
+      <c r="D134" t="b">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
         <v>329</v>
       </c>
-      <c r="D134" t="b">
-        <v>1</v>
-      </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>330</v>
-      </c>
-      <c r="F134" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4236,10 +4236,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C135" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D135" t="b">
         <v>1</v>
@@ -4248,7 +4248,7 @@
         <v>98</v>
       </c>
       <c r="F135" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4256,19 +4256,19 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
+        <v>332</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
       </c>
       <c r="E136" t="s">
+        <v>334</v>
+      </c>
+      <c r="F136" t="s">
         <v>335</v>
-      </c>
-      <c r="F136" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4276,19 +4276,19 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C137" t="s">
+        <v>336</v>
+      </c>
+      <c r="D137" t="b">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>373</v>
+      </c>
+      <c r="F137" t="s">
         <v>337</v>
-      </c>
-      <c r="D137" t="b">
-        <v>1</v>
-      </c>
-      <c r="E137" t="s">
-        <v>374</v>
-      </c>
-      <c r="F137" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4296,19 +4296,19 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C138" t="s">
+        <v>338</v>
+      </c>
+      <c r="D138" t="b">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>340</v>
+      </c>
+      <c r="F138" t="s">
         <v>339</v>
-      </c>
-      <c r="D138" t="b">
-        <v>1</v>
-      </c>
-      <c r="E138" t="s">
-        <v>341</v>
-      </c>
-      <c r="F138" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4316,19 +4316,19 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C139" t="s">
+        <v>341</v>
+      </c>
+      <c r="D139" t="b">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>343</v>
+      </c>
+      <c r="F139" t="s">
         <v>342</v>
-      </c>
-      <c r="D139" t="b">
-        <v>1</v>
-      </c>
-      <c r="E139" t="s">
-        <v>344</v>
-      </c>
-      <c r="F139" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4336,19 +4336,19 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
+        <v>344</v>
+      </c>
+      <c r="C140" t="s">
         <v>345</v>
-      </c>
-      <c r="C140" t="s">
-        <v>346</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F140" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4356,19 +4356,19 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C141" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
       </c>
       <c r="E141" t="s">
+        <v>351</v>
+      </c>
+      <c r="F141" t="s">
         <v>352</v>
-      </c>
-      <c r="F141" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4376,16 +4376,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C142" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F142" t="s">
         <v>98</v>
@@ -4396,10 +4396,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C143" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D143" t="b">
         <v>1</v>
@@ -4408,7 +4408,7 @@
         <v>98</v>
       </c>
       <c r="F143" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4416,19 +4416,19 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
+        <v>355</v>
+      </c>
+      <c r="C144" t="s">
         <v>356</v>
-      </c>
-      <c r="C144" t="s">
-        <v>357</v>
       </c>
       <c r="D144" t="b">
         <v>0</v>
       </c>
       <c r="E144" t="s">
+        <v>364</v>
+      </c>
+      <c r="F144" t="s">
         <v>365</v>
-      </c>
-      <c r="F144" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4436,10 +4436,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C145" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D145" t="b">
         <v>1</v>
@@ -4448,7 +4448,7 @@
         <v>98</v>
       </c>
       <c r="F145" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4456,19 +4456,19 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C146" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D146" t="b">
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F146" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4476,10 +4476,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C147" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D147" t="b">
         <v>1</v>
@@ -4488,7 +4488,7 @@
         <v>98</v>
       </c>
       <c r="F147" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4496,10 +4496,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C148" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D148" t="b">
         <v>1</v>
@@ -4508,7 +4508,7 @@
         <v>98</v>
       </c>
       <c r="F148" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4516,10 +4516,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C149" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D149" t="b">
         <v>1</v>
@@ -4528,7 +4528,7 @@
         <v>98</v>
       </c>
       <c r="F149" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4536,19 +4536,19 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C150" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D150" t="b">
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F150" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4556,10 +4556,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C151" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D151" t="b">
         <v>1</v>
@@ -4568,7 +4568,7 @@
         <v>98</v>
       </c>
       <c r="F151" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Secret.xlsx
+++ b/Excel/Secret.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0C4711-766A-4E3C-9D1C-C3196517292C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAB3D22-A53C-4FAF-93F6-5D00608C9EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="60" windowWidth="21600" windowHeight="11385" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1540,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3242,7 +3242,7 @@
         <v>199</v>
       </c>
       <c r="D85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="s">
         <v>198</v>
